--- a/Set Parser/dedman_tests.xlsx
+++ b/Set Parser/dedman_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madat\Projects\AdvisingAI\advising\Set Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50151F38-6000-477C-AF50-6555B263A1C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93BD055-E041-4BC7-882D-D3E44655153B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9648" xr2:uid="{EE11EF62-E1A2-A84D-BDAD-0FA4B8FAC44B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="577">
   <si>
     <t>ANTH 2301 - Introductory Cultural Anthropology</t>
   </si>
@@ -1573,66 +1573,12 @@
     <t>ECO 3301 - Price Theory</t>
   </si>
   <si>
-    <t>AERO 1103 - Foundations of the United States Air Force</t>
-  </si>
-  <si>
-    <t>AERO 1104 - Foundations of the United States Air Force</t>
-  </si>
-  <si>
-    <t>AERO 2100 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 2103 - The Evolution of USAF Air and Space Power</t>
-  </si>
-  <si>
-    <t>AERO 2104 - The Evolution of USAF Air and Space Power</t>
-  </si>
-  <si>
-    <t>AERO 2200 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 2300 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 2400 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 3431 - Air Force Leadership</t>
-  </si>
-  <si>
-    <t>AERO 3432 - Air Force Leadership</t>
-  </si>
-  <si>
-    <t>AERO 4100 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 4200 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 4300 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 4400 - Cooperative Education in Aerospace Studies</t>
-  </si>
-  <si>
-    <t>AERO 4431 - National Security Forces in Contemporary American Society and Preparation for Active Duty</t>
-  </si>
-  <si>
-    <t>AERO 4432 - National Security Forces in Contemporary American Society and Preparation for Active Duty</t>
-  </si>
-  <si>
     <t>SET 1 END</t>
   </si>
   <si>
     <t>SET 1 START</t>
   </si>
   <si>
-    <t>Aerospace Studies: Air Force ROTC</t>
-  </si>
-  <si>
-    <t>SET 1: Courses</t>
-  </si>
-  <si>
     <t>Anthropology, B.A.</t>
   </si>
   <si>
@@ -1742,6 +1688,90 @@
   </si>
   <si>
     <t xml:space="preserve">(6 SET 10 AND 3 SET 11) OR (3 SET 10 AND 6 SET 11) OR (9 SET 11): ANTHROPOLOGY ELECTIVES </t>
+  </si>
+  <si>
+    <t>Biological Sciences, B.A.</t>
+  </si>
+  <si>
+    <t>BIOL 1301 - Introductory Biology</t>
+  </si>
+  <si>
+    <t>BIOL 1101 - Introductory Biology Lab</t>
+  </si>
+  <si>
+    <t>BIOL 1302 - Introductory Biology</t>
+  </si>
+  <si>
+    <t>BIOL 1102 - Introductory Biology Lab</t>
+  </si>
+  <si>
+    <t>SET 3 END</t>
+  </si>
+  <si>
+    <t>CHEM 1303 - General Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM 1113 - General Chemistry Laboratory</t>
+  </si>
+  <si>
+    <t>CHEM 1304 - General Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM 1114 - General Chemistry Laboratory</t>
+  </si>
+  <si>
+    <t>RULES</t>
+  </si>
+  <si>
+    <t>SET 1 AND MIN 12 (SET 2 AND MIN 3 SET 3 AND MIN 8 SET 4): BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>SET 5 START: CHEMISTRY</t>
+  </si>
+  <si>
+    <t>Biological Sciences, B.S.</t>
+  </si>
+  <si>
+    <t>MATH 1337 - Calculus I</t>
+  </si>
+  <si>
+    <t>MATH 1338 - Calculus II</t>
+  </si>
+  <si>
+    <t>STAT 2331 - Introduction to Statistical Methods </t>
+  </si>
+  <si>
+    <t>MATH 1340 - Consolidated Calculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET 8 END </t>
+  </si>
+  <si>
+    <t>PHYS 1303 - Introductory Mechanics</t>
+  </si>
+  <si>
+    <t>PHYS 1307 - General Physics I</t>
+  </si>
+  <si>
+    <t>PHYS 1304 - Introductory Electricity and Magnetism</t>
+  </si>
+  <si>
+    <t>PHYS 1308 - General Physics II</t>
+  </si>
+  <si>
+    <t>PHYS 1105 - Mechanics Laboratory</t>
+  </si>
+  <si>
+    <t>PHYS 1106 - Electricity and Magnetism Laboratory</t>
+  </si>
+  <si>
+    <t>SET 1 AND MIN 20 (SET 2 AND MIN 3 SET 3 AND MIN 8 SET 4): BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>SET 6 OR SET 7 OR SET 8: MATHEMATICS</t>
+  </si>
+  <si>
+    <t>3 SET 9 AND 3 SET 10 AND SET 11: PHYSICS</t>
   </si>
 </sst>
 </file>
@@ -2117,16 +2147,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C03DD-9254-AB4A-AF7D-D3A80BB60789}">
   <dimension ref="A1:KE601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C556" workbookViewId="0">
-      <selection activeCell="C574" sqref="C574"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="124.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="72" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.19921875" style="1" customWidth="1"/>
     <col min="6" max="7" width="96.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.296875" style="1" bestFit="1" customWidth="1"/>
@@ -2303,24 +2332,30 @@
   <sheetData>
     <row r="1" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>507</v>
+        <v>549</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="AD2" s="5"/>
       <c r="BQ2" s="4"/>
@@ -2356,13 +2391,16 @@
     </row>
     <row r="3" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="K3" s="4"/>
       <c r="AD3" s="5"/>
@@ -2378,13 +2416,16 @@
     </row>
     <row r="4" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>511</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>551</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="6"/>
@@ -2398,13 +2439,16 @@
     </row>
     <row r="5" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>552</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="6"/>
@@ -2418,13 +2462,16 @@
     </row>
     <row r="6" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>513</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>553</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="6"/>
@@ -2438,13 +2485,16 @@
     </row>
     <row r="7" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>531</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="6"/>
@@ -2459,13 +2509,16 @@
     </row>
     <row r="8" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>531</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -2480,13 +2533,16 @@
     </row>
     <row r="9" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>516</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>514</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
@@ -2501,13 +2557,16 @@
     </row>
     <row r="10" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>517</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>514</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
@@ -2522,13 +2581,16 @@
     </row>
     <row r="11" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>518</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>167</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
@@ -2543,13 +2605,16 @@
     </row>
     <row r="12" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>519</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>515</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>533</v>
+        <v>180</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
@@ -2563,13 +2628,16 @@
     </row>
     <row r="13" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>520</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>516</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>534</v>
+        <v>189</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
@@ -2583,13 +2651,16 @@
     </row>
     <row r="14" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>198</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
@@ -2603,13 +2674,16 @@
     </row>
     <row r="15" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>522</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>132</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
@@ -2622,13 +2696,16 @@
     </row>
     <row r="16" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>523</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
@@ -2641,13 +2718,16 @@
     </row>
     <row r="17" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>524</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>223</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
@@ -2661,13 +2741,16 @@
     </row>
     <row r="18" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>525</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>230</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
@@ -2681,13 +2764,16 @@
     </row>
     <row r="19" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>526</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
@@ -2699,11 +2785,17 @@
       <c r="CK19" s="6"/>
     </row>
     <row r="20" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
@@ -2718,13 +2810,16 @@
     </row>
     <row r="21" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>508</v>
+        <v>179</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>258</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
@@ -2740,13 +2835,16 @@
     </row>
     <row r="22" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>529</v>
+        <v>188</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>268</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
@@ -2761,11 +2859,17 @@
       <c r="CK22" s="6"/>
     </row>
     <row r="23" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>280</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
@@ -2780,11 +2884,17 @@
       <c r="CK23" s="6"/>
     </row>
     <row r="24" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
@@ -2799,11 +2909,17 @@
       <c r="CK24" s="6"/>
     </row>
     <row r="25" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>533</v>
+        <v>166</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="G25" s="6"/>
       <c r="AE25" s="6"/>
@@ -2819,11 +2935,17 @@
       <c r="CK25" s="6"/>
     </row>
     <row r="26" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>534</v>
+        <v>179</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>302</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="G26" s="6"/>
       <c r="AE26" s="6"/>
@@ -2838,11 +2960,17 @@
       <c r="CK26" s="6"/>
     </row>
     <row r="27" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G27" s="6"/>
       <c r="AE27" s="6"/>
@@ -2856,11 +2984,17 @@
       <c r="CK27" s="6"/>
     </row>
     <row r="28" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>535</v>
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>197</v>
+        <v>321</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="G28" s="6"/>
       <c r="AE28" s="6"/>
@@ -2874,11 +3008,17 @@
       <c r="CK28" s="6"/>
     </row>
     <row r="29" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>536</v>
+        <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
+        <v>325</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="G29" s="6"/>
       <c r="AE29" s="6"/>
@@ -2892,11 +3032,17 @@
       <c r="CK29" s="6"/>
     </row>
     <row r="30" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>517</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>535</v>
+        <v>331</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="G30" s="6"/>
       <c r="K30" s="6"/>
@@ -2912,11 +3058,17 @@
       <c r="KE30" s="5"/>
     </row>
     <row r="31" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>229</v>
+        <v>518</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>536</v>
+        <v>337</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G31" s="6"/>
       <c r="AE31" s="6"/>
@@ -2931,11 +3083,17 @@
       <c r="KE31" s="5"/>
     </row>
     <row r="32" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>216</v>
+        <v>342</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="G32" s="6"/>
       <c r="AE32" s="6"/>
@@ -2949,12 +3107,18 @@
       <c r="CK32" s="6"/>
       <c r="KE32" s="5"/>
     </row>
-    <row r="33" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>247</v>
+        <v>519</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>537</v>
+        <v>349</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="G33" s="6"/>
       <c r="AE33" s="6"/>
@@ -2968,12 +3132,18 @@
       <c r="CK33" s="6"/>
       <c r="KE33" s="5"/>
     </row>
-    <row r="34" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>522</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>540</v>
+        <v>356</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="G34" s="6"/>
       <c r="O34" s="6"/>
@@ -2989,12 +3159,18 @@
       <c r="CK34" s="6"/>
       <c r="KE34" s="5"/>
     </row>
-    <row r="35" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>537</v>
+        <v>207</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>359</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="G35" s="6"/>
       <c r="O35" s="6"/>
@@ -3009,12 +3185,18 @@
       <c r="CK35" s="6"/>
       <c r="KE35" s="5"/>
     </row>
-    <row r="36" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>540</v>
+        <v>229</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>229</v>
+        <v>515</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="G36" s="6"/>
       <c r="O36" s="6"/>
@@ -3030,12 +3212,18 @@
       <c r="CK36" s="6"/>
       <c r="KE36" s="5"/>
     </row>
-    <row r="37" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>239</v>
+        <v>516</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="G37" s="6"/>
       <c r="O37" s="6"/>
@@ -3051,12 +3239,18 @@
       <c r="CK37" s="6"/>
       <c r="KE37" s="5"/>
     </row>
-    <row r="38" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>247</v>
+        <v>375</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="G38" s="6"/>
       <c r="O38" s="6"/>
@@ -3073,12 +3267,18 @@
       <c r="JA38" s="5"/>
       <c r="KE38" s="5"/>
     </row>
-    <row r="39" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4</v>
+        <v>389</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="G39" s="6"/>
       <c r="O39" s="6"/>
@@ -3105,12 +3305,18 @@
       <c r="JU39" s="5"/>
       <c r="KE39" s="5"/>
     </row>
-    <row r="40" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>298</v>
+        <v>527</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>545</v>
+        <v>394</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="G40" s="6"/>
       <c r="O40" s="6"/>
@@ -3127,12 +3333,18 @@
       <c r="JU40" s="5"/>
       <c r="KE40" s="5"/>
     </row>
-    <row r="41" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>312</v>
+        <v>523</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>541</v>
+        <v>399</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="G41" s="6"/>
       <c r="O41" s="5"/>
@@ -3150,12 +3362,18 @@
       <c r="JU41" s="5"/>
       <c r="KE41" s="5"/>
     </row>
-    <row r="42" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>278</v>
+        <v>403</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="G42" s="6"/>
       <c r="O42" s="5"/>
@@ -3172,12 +3390,18 @@
       <c r="JU42" s="5"/>
       <c r="KE42" s="5"/>
     </row>
-    <row r="43" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>279</v>
+        <v>405</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G43" s="6"/>
       <c r="AE43" s="6"/>
@@ -3192,12 +3416,18 @@
       <c r="JU43" s="5"/>
       <c r="KE43" s="5"/>
     </row>
-    <row r="44" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>295</v>
+        <v>408</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="G44" s="6"/>
       <c r="AE44" s="6"/>
@@ -3212,12 +3442,18 @@
       <c r="JU44" s="5"/>
       <c r="KE44" s="5"/>
     </row>
-    <row r="45" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>298</v>
+        <v>412</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="G45" s="6"/>
       <c r="O45" s="5"/>
@@ -3234,12 +3470,18 @@
       <c r="JU45" s="5"/>
       <c r="KE45" s="5"/>
     </row>
-    <row r="46" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>312</v>
+        <v>420</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="G46" s="6"/>
       <c r="O46" s="5"/>
@@ -3255,12 +3497,18 @@
       <c r="JU46" s="5"/>
       <c r="KE46" s="5"/>
     </row>
-    <row r="47" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="B47" s="1" t="s">
-        <v>545</v>
+        <v>319</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>319</v>
+        <v>426</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="G47" s="6"/>
       <c r="AE47" s="6"/>
@@ -3276,14 +3524,19 @@
       <c r="JU47" s="5"/>
       <c r="KE47" s="5"/>
     </row>
-    <row r="48" spans="2:291" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:291" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>541</v>
+        <v>323</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>429</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
@@ -3297,14 +3550,19 @@
       <c r="JA48" s="5"/>
       <c r="JU48" s="5"/>
     </row>
-    <row r="49" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
@@ -3319,14 +3577,19 @@
       <c r="JK49" s="5"/>
       <c r="JU49" s="5"/>
     </row>
-    <row r="50" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>245</v>
+        <v>336</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>431</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
@@ -3340,14 +3603,19 @@
       <c r="JK50" s="5"/>
       <c r="JU50" s="5"/>
     </row>
-    <row r="51" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>432</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
@@ -3361,14 +3629,19 @@
       <c r="JK51" s="5"/>
       <c r="JU51" s="5"/>
     </row>
-    <row r="52" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>433</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
@@ -3382,14 +3655,19 @@
       <c r="JK52" s="5"/>
       <c r="JU52" s="5"/>
     </row>
-    <row r="53" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>276</v>
+        <v>525</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>434</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="AE53" s="6"/>
@@ -3404,14 +3682,19 @@
       <c r="JK53" s="5"/>
       <c r="JU53" s="5"/>
     </row>
-    <row r="54" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>435</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="BM54" s="7"/>
@@ -3420,14 +3703,19 @@
       <c r="JK54" s="5"/>
       <c r="JU54" s="5"/>
     </row>
-    <row r="55" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>436</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="AE55" s="5"/>
@@ -3442,14 +3730,19 @@
       <c r="JK55" s="5"/>
       <c r="JU55" s="5"/>
     </row>
-    <row r="56" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>437</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="AE56" s="5"/>
@@ -3464,14 +3757,19 @@
       <c r="JK56" s="5"/>
       <c r="JU56" s="5"/>
     </row>
-    <row r="57" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>554</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="AE57"/>
@@ -3484,14 +3782,19 @@
       <c r="BO57"/>
       <c r="JK57" s="5"/>
     </row>
-    <row r="58" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>318</v>
+        <v>531</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>518</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="AE58"/>
       <c r="AF58"/>
@@ -3503,14 +3806,19 @@
       <c r="BO58"/>
       <c r="JK58" s="5"/>
     </row>
-    <row r="59" spans="2:281" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>2</v>
+        <v>535</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>367</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="AE59"/>
       <c r="AF59"/>
@@ -3522,14 +3830,19 @@
       <c r="BO59"/>
       <c r="JK59" s="5"/>
     </row>
-    <row r="60" spans="2:281" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+    <row r="60" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="C60" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="AE60"/>
       <c r="AF60"/>
@@ -3541,14 +3854,19 @@
       <c r="BO60"/>
       <c r="JK60" s="5"/>
     </row>
-    <row r="61" spans="2:281" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+    <row r="61" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="C61" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="AE61"/>
       <c r="AF61"/>
@@ -3560,14 +3878,19 @@
       <c r="BO61"/>
       <c r="JK61" s="5"/>
     </row>
-    <row r="62" spans="2:281" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="C62" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="AE62"/>
       <c r="AF62"/>
@@ -3579,14 +3902,19 @@
       <c r="BO62"/>
       <c r="JK62" s="5"/>
     </row>
-    <row r="63" spans="2:281" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="C63" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="AE63"/>
       <c r="AF63"/>
@@ -3598,14 +3926,19 @@
       <c r="BO63"/>
       <c r="JK63" s="5"/>
     </row>
-    <row r="64" spans="2:281" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="C64" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="AE64"/>
       <c r="AF64"/>
@@ -3617,14 +3950,19 @@
       <c r="BO64"/>
       <c r="JK64" s="5"/>
     </row>
-    <row r="65" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="C65" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="AE65"/>
       <c r="AF65"/>
@@ -3635,14 +3973,19 @@
       <c r="BO65"/>
       <c r="JK65" s="5"/>
     </row>
-    <row r="66" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="C66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="AE66"/>
       <c r="AF66"/>
@@ -3653,36 +3996,51 @@
       <c r="BO66"/>
       <c r="JK66" s="5"/>
     </row>
-    <row r="67" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+    <row r="67" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s">
         <v>230</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="C67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="BO67"/>
     </row>
-    <row r="68" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+    <row r="68" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="C68" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="BO68"/>
     </row>
-    <row r="69" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
+    <row r="69" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="C69" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="AE69"/>
       <c r="AF69"/>
@@ -3693,14 +4051,19 @@
       <c r="AN69" s="4"/>
       <c r="BO69"/>
     </row>
-    <row r="70" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
+    <row r="70" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s">
         <v>258</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="C70" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="F70" s="6"/>
       <c r="AE70"/>
       <c r="AF70"/>
@@ -3710,14 +4073,19 @@
       <c r="AJ70"/>
       <c r="BO70"/>
     </row>
-    <row r="71" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s">
         <v>268</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="C71" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="F71" s="6"/>
       <c r="N71" s="6"/>
       <c r="AE71"/>
@@ -3728,14 +4096,19 @@
       <c r="AJ71"/>
       <c r="BO71"/>
     </row>
-    <row r="72" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
+    <row r="72" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s">
         <v>280</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="C72" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="F72" s="6"/>
       <c r="AE72"/>
       <c r="AF72"/>
@@ -3745,14 +4118,19 @@
       <c r="AJ72"/>
       <c r="BO72"/>
     </row>
-    <row r="73" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="C73" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="F73" s="6"/>
       <c r="AE73"/>
       <c r="AF73"/>
@@ -3762,14 +4140,19 @@
       <c r="AJ73"/>
       <c r="BO73"/>
     </row>
-    <row r="74" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
+    <row r="74" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="C74" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="F74" s="6"/>
       <c r="AE74"/>
       <c r="AF74"/>
@@ -3778,14 +4161,19 @@
       <c r="AI74"/>
       <c r="AJ74"/>
     </row>
-    <row r="75" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
+    <row r="75" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s">
         <v>302</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="C75" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="F75" s="6"/>
       <c r="N75" s="6"/>
       <c r="AE75"/>
@@ -3795,14 +4183,19 @@
       <c r="AI75"/>
       <c r="AJ75"/>
     </row>
-    <row r="76" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
+    <row r="76" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="C76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F76" s="6"/>
       <c r="N76" s="6"/>
       <c r="AE76"/>
@@ -3813,14 +4206,19 @@
       <c r="AJ76"/>
       <c r="BO76"/>
     </row>
-    <row r="77" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
+    <row r="77" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s">
         <v>321</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="C77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F77" s="6"/>
       <c r="N77" s="6"/>
       <c r="AE77"/>
@@ -3831,14 +4229,19 @@
       <c r="AJ77"/>
       <c r="BO77"/>
     </row>
-    <row r="78" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
+    <row r="78" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s">
         <v>325</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="C78" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F78" s="6"/>
       <c r="N78" s="6"/>
       <c r="AE78"/>
@@ -3849,14 +4252,16 @@
       <c r="AJ78"/>
       <c r="BO78"/>
     </row>
-    <row r="79" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
+    <row r="79" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F79" s="6"/>
       <c r="N79" s="6"/>
       <c r="AE79"/>
@@ -3867,14 +4272,19 @@
       <c r="AJ79"/>
       <c r="BO79"/>
     </row>
-    <row r="80" spans="2:271" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="1:271" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s">
         <v>337</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="C80" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="F80" s="6"/>
       <c r="N80" s="6"/>
       <c r="AE80"/>
@@ -3885,14 +4295,19 @@
       <c r="AJ80"/>
       <c r="BO80"/>
     </row>
-    <row r="81" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s">
         <v>342</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="C81" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="F81" s="6"/>
       <c r="N81" s="6"/>
       <c r="AE81"/>
@@ -3903,12 +4318,18 @@
       <c r="AJ81"/>
       <c r="BO81"/>
     </row>
-    <row r="82" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s">
         <v>349</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="F82" s="6"/>
       <c r="M82" s="6"/>
@@ -3921,12 +4342,16 @@
       <c r="AJ82"/>
       <c r="BO82"/>
     </row>
-    <row r="83" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s">
         <v>356</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="F83" s="6"/>
       <c r="M83" s="6"/>
@@ -3939,12 +4364,16 @@
       <c r="AJ83"/>
       <c r="BO83"/>
     </row>
-    <row r="84" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s">
         <v>359</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -3956,12 +4385,16 @@
       <c r="AJ84"/>
       <c r="BO84"/>
     </row>
-    <row r="85" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s">
         <v>367</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="5"/>
@@ -3973,12 +4406,16 @@
       <c r="AJ85"/>
       <c r="BO85"/>
     </row>
-    <row r="86" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
+    <row r="86" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s">
         <v>370</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="M86" s="6"/>
       <c r="N86" s="5"/>
@@ -3990,12 +4427,16 @@
       <c r="AJ86"/>
       <c r="BO86"/>
     </row>
-    <row r="87" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
+    <row r="87" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s">
         <v>375</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="M87" s="5"/>
       <c r="AE87"/>
@@ -4006,12 +4447,16 @@
       <c r="AJ87"/>
       <c r="BO87"/>
     </row>
-    <row r="88" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s">
         <v>379</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="M88" s="5"/>
       <c r="AE88"/>
@@ -4022,12 +4467,16 @@
       <c r="AJ88"/>
       <c r="BO88"/>
     </row>
-    <row r="89" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
+    <row r="89" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B89" t="s">
         <v>382</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="N89" s="5"/>
       <c r="AE89"/>
@@ -4038,12 +4487,16 @@
       <c r="AJ89"/>
       <c r="BO89"/>
     </row>
-    <row r="90" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" t="s">
         <v>385</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="N90" s="5"/>
       <c r="AE90"/>
@@ -4054,12 +4507,16 @@
       <c r="AJ90"/>
       <c r="BO90"/>
     </row>
-    <row r="91" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B91" t="s">
         <v>389</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="M91" s="5"/>
       <c r="AE91"/>
@@ -4070,12 +4527,16 @@
       <c r="AJ91"/>
       <c r="BO91"/>
     </row>
-    <row r="92" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B92" s="1" t="s">
+    <row r="92" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B92" t="s">
         <v>394</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="M92" s="5"/>
       <c r="AE92"/>
@@ -4085,12 +4546,16 @@
       <c r="AI92"/>
       <c r="AJ92"/>
     </row>
-    <row r="93" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B93" t="s">
         <v>399</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="AE93"/>
       <c r="AF93"/>
@@ -4099,12 +4564,16 @@
       <c r="AI93"/>
       <c r="AJ93"/>
     </row>
-    <row r="94" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B94" s="1" t="s">
+    <row r="94" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B94" t="s">
         <v>372</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="AE94"/>
       <c r="AF94"/>
@@ -4114,12 +4583,16 @@
       <c r="AJ94"/>
       <c r="BO94"/>
     </row>
-    <row r="95" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B95" s="1" t="s">
+    <row r="95" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B95" t="s">
         <v>403</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="AE95"/>
       <c r="AF95"/>
@@ -4129,12 +4602,16 @@
       <c r="AJ95"/>
       <c r="BO95"/>
     </row>
-    <row r="96" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B96" s="1" t="s">
+    <row r="96" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B96" t="s">
         <v>405</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="AE96"/>
       <c r="AF96"/>
@@ -4144,12 +4621,16 @@
       <c r="AJ96"/>
       <c r="BO96"/>
     </row>
-    <row r="97" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B97" t="s">
         <v>408</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="AE97"/>
       <c r="AF97"/>
@@ -4159,12 +4640,16 @@
       <c r="AJ97"/>
       <c r="BO97"/>
     </row>
-    <row r="98" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B98" s="1" t="s">
+    <row r="98" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B98" t="s">
         <v>412</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="AE98"/>
       <c r="AF98"/>
@@ -4174,12 +4659,16 @@
       <c r="AJ98"/>
       <c r="BO98"/>
     </row>
-    <row r="99" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B99" s="1" t="s">
+    <row r="99" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B99" t="s">
         <v>416</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="AE99"/>
       <c r="AF99"/>
@@ -4189,12 +4678,16 @@
       <c r="AJ99"/>
       <c r="BO99"/>
     </row>
-    <row r="100" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B100" s="1" t="s">
+    <row r="100" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C100" t="s">
+      <c r="B100" t="s">
         <v>420</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="AE100"/>
       <c r="AF100"/>
@@ -4204,12 +4697,16 @@
       <c r="AJ100"/>
       <c r="BO100"/>
     </row>
-    <row r="101" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B101" t="s">
         <v>210</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="AE101"/>
       <c r="AF101"/>
@@ -4219,12 +4716,16 @@
       <c r="AJ101"/>
       <c r="BO101"/>
     </row>
-    <row r="102" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C102" t="s">
+      <c r="B102" t="s">
         <v>380</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="AE102"/>
       <c r="AF102"/>
@@ -4234,12 +4735,16 @@
       <c r="AJ102"/>
       <c r="BO102"/>
     </row>
-    <row r="103" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B103" s="1" t="s">
+    <row r="103" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B103" t="s">
         <v>426</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="AE103"/>
       <c r="AF103"/>
@@ -4249,13 +4754,14 @@
       <c r="AJ103"/>
       <c r="BO103"/>
     </row>
-    <row r="104" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B104" s="1" t="s">
+    <row r="104" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B104" t="s">
         <v>429</v>
       </c>
+      <c r="C104"/>
       <c r="AE104"/>
       <c r="AF104"/>
       <c r="AG104"/>
@@ -4263,12 +4769,16 @@
       <c r="AI104"/>
       <c r="AJ104"/>
     </row>
-    <row r="105" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B105" s="1" t="s">
+    <row r="105" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B105" t="s">
         <v>191</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="AE105"/>
       <c r="AF105"/>
@@ -4277,12 +4787,16 @@
       <c r="AI105"/>
       <c r="AJ105"/>
     </row>
-    <row r="106" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B106" s="1" t="s">
+    <row r="106" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B106" t="s">
         <v>305</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="AE106"/>
       <c r="AF106"/>
@@ -4291,12 +4805,16 @@
       <c r="AI106"/>
       <c r="AJ106"/>
     </row>
-    <row r="107" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B107" s="1" t="s">
+    <row r="107" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B107" t="s">
         <v>431</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="AE107"/>
       <c r="AF107"/>
@@ -4305,12 +4823,16 @@
       <c r="AI107"/>
       <c r="AJ107"/>
     </row>
-    <row r="108" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B108" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C108" t="s">
+    <row r="108" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B108" t="s">
         <v>432</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="AE108"/>
       <c r="AF108"/>
@@ -4319,12 +4841,16 @@
       <c r="AI108"/>
       <c r="AJ108"/>
     </row>
-    <row r="109" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B109" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C109" t="s">
+    <row r="109" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B109" t="s">
         <v>433</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="AE109"/>
       <c r="AF109"/>
@@ -4333,13 +4859,14 @@
       <c r="AI109"/>
       <c r="AJ109"/>
     </row>
-    <row r="110" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B110" s="1" t="s">
+    <row r="110" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B110" t="s">
         <v>434</v>
       </c>
+      <c r="C110"/>
       <c r="AE110"/>
       <c r="AF110"/>
       <c r="AG110"/>
@@ -4347,13 +4874,14 @@
       <c r="AI110"/>
       <c r="AJ110"/>
     </row>
-    <row r="111" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B111" s="1" t="s">
+    <row r="111" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B111" t="s">
         <v>435</v>
       </c>
+      <c r="C111"/>
       <c r="AE111"/>
       <c r="AF111"/>
       <c r="AG111"/>
@@ -4361,13 +4889,14 @@
       <c r="AI111"/>
       <c r="AJ111"/>
     </row>
-    <row r="112" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="B112" s="1" t="s">
+    <row r="112" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B112" t="s">
         <v>436</v>
       </c>
+      <c r="C112"/>
       <c r="AE112"/>
       <c r="AF112"/>
       <c r="AG112"/>
@@ -4375,13 +4904,14 @@
       <c r="AI112"/>
       <c r="AJ112"/>
     </row>
-    <row r="113" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B113" s="1" t="s">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B113" t="s">
         <v>437</v>
       </c>
+      <c r="C113"/>
       <c r="D113" s="6"/>
       <c r="AE113"/>
       <c r="AF113"/>
@@ -4390,13 +4920,14 @@
       <c r="AI113"/>
       <c r="AJ113"/>
     </row>
-    <row r="114" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B114" s="1" t="s">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B114" t="s">
         <v>377</v>
       </c>
+      <c r="C114"/>
       <c r="D114" s="6"/>
       <c r="AE114"/>
       <c r="AF114"/>
@@ -4405,13 +4936,14 @@
       <c r="AI114"/>
       <c r="AJ114"/>
     </row>
-    <row r="115" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B115" s="1" t="s">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B115" t="s">
         <v>25</v>
       </c>
+      <c r="C115"/>
       <c r="D115" s="6"/>
       <c r="AE115"/>
       <c r="AF115"/>
@@ -4420,13 +4952,14 @@
       <c r="AI115"/>
       <c r="AJ115"/>
     </row>
-    <row r="116" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B116" s="1" t="s">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B116" t="s">
         <v>47</v>
       </c>
+      <c r="C116"/>
       <c r="D116" s="6"/>
       <c r="AE116"/>
       <c r="AF116"/>
@@ -4435,13 +4968,14 @@
       <c r="AI116"/>
       <c r="AJ116"/>
     </row>
-    <row r="117" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B117" s="1" t="s">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B117" t="s">
         <v>18</v>
       </c>
+      <c r="C117"/>
       <c r="D117" s="6"/>
       <c r="AE117"/>
       <c r="AF117"/>
@@ -4450,13 +4984,14 @@
       <c r="AI117"/>
       <c r="AJ117"/>
     </row>
-    <row r="118" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B118" s="1" t="s">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B118" t="s">
         <v>15</v>
       </c>
+      <c r="C118"/>
       <c r="D118" s="6"/>
       <c r="AE118"/>
       <c r="AF118"/>
@@ -4465,13 +5000,14 @@
       <c r="AI118"/>
       <c r="AJ118"/>
     </row>
-    <row r="119" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B119" s="1" t="s">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B119" t="s">
         <v>34</v>
       </c>
+      <c r="C119"/>
       <c r="D119"/>
       <c r="AE119"/>
       <c r="AF119"/>
@@ -4480,13 +5016,14 @@
       <c r="AI119"/>
       <c r="AJ119"/>
     </row>
-    <row r="120" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B120" s="1" t="s">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C120" t="s">
+      <c r="B120" t="s">
         <v>441</v>
       </c>
+      <c r="C120"/>
       <c r="D120"/>
       <c r="AE120"/>
       <c r="AF120"/>
@@ -4495,13 +5032,14 @@
       <c r="AI120"/>
       <c r="AJ120"/>
     </row>
-    <row r="121" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B121" s="1" t="s">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B121" t="s">
         <v>199</v>
       </c>
+      <c r="C121"/>
       <c r="D121"/>
       <c r="AE121"/>
       <c r="AF121"/>
@@ -4510,13 +5048,14 @@
       <c r="AI121"/>
       <c r="AJ121"/>
     </row>
-    <row r="122" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B122" s="1" t="s">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B122" t="s">
         <v>66</v>
       </c>
+      <c r="C122"/>
       <c r="D122"/>
       <c r="AE122"/>
       <c r="AF122"/>
@@ -4525,13 +5064,14 @@
       <c r="AI122"/>
       <c r="AJ122"/>
     </row>
-    <row r="123" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B123" s="1" t="s">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B123" t="s">
         <v>217</v>
       </c>
+      <c r="C123"/>
       <c r="D123"/>
       <c r="AE123"/>
       <c r="AF123"/>
@@ -4540,13 +5080,14 @@
       <c r="AI123"/>
       <c r="AJ123"/>
     </row>
-    <row r="124" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B124" s="1" t="s">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B124" t="s">
         <v>78</v>
       </c>
+      <c r="C124"/>
       <c r="D124"/>
       <c r="AE124"/>
       <c r="AF124"/>
@@ -4555,13 +5096,14 @@
       <c r="AI124"/>
       <c r="AJ124"/>
     </row>
-    <row r="125" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B125" s="1" t="s">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C125" t="s">
+      <c r="B125" t="s">
         <v>96</v>
       </c>
+      <c r="C125"/>
       <c r="D125"/>
       <c r="AE125"/>
       <c r="AF125"/>
@@ -4570,13 +5112,14 @@
       <c r="AI125"/>
       <c r="AJ125"/>
     </row>
-    <row r="126" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B126" s="1" t="s">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C126" t="s">
+      <c r="B126" t="s">
         <v>168</v>
       </c>
+      <c r="C126"/>
       <c r="D126"/>
       <c r="AE126"/>
       <c r="AF126"/>
@@ -4585,13 +5128,14 @@
       <c r="AI126"/>
       <c r="AJ126"/>
     </row>
-    <row r="127" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B127" s="1" t="s">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B127" t="s">
         <v>249</v>
       </c>
+      <c r="C127"/>
       <c r="D127"/>
       <c r="AE127"/>
       <c r="AF127"/>
@@ -4600,40 +5144,44 @@
       <c r="AI127"/>
       <c r="AJ127"/>
     </row>
-    <row r="128" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B128" s="1" t="s">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B128" t="s">
         <v>259</v>
       </c>
+      <c r="C128"/>
       <c r="D128"/>
     </row>
-    <row r="129" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B129" s="1" t="s">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B129" t="s">
         <v>117</v>
       </c>
+      <c r="C129"/>
       <c r="D129"/>
     </row>
-    <row r="130" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B130" s="1" t="s">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B130" t="s">
         <v>281</v>
       </c>
+      <c r="C130"/>
       <c r="D130"/>
     </row>
-    <row r="131" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B131" s="1" t="s">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B131" t="s">
         <v>290</v>
       </c>
+      <c r="C131"/>
       <c r="D131"/>
       <c r="AE131" s="6"/>
       <c r="AF131" s="6"/>
@@ -4642,13 +5190,14 @@
       <c r="AI131" s="6"/>
       <c r="AJ131" s="6"/>
     </row>
-    <row r="132" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B132" s="1" t="s">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B132" t="s">
         <v>296</v>
       </c>
+      <c r="C132"/>
       <c r="D132"/>
       <c r="AE132" s="6"/>
       <c r="AF132" s="6"/>
@@ -4657,13 +5206,14 @@
       <c r="AI132" s="6"/>
       <c r="AJ132" s="6"/>
     </row>
-    <row r="133" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B133" s="1" t="s">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C133" t="s">
+      <c r="B133" t="s">
         <v>303</v>
       </c>
+      <c r="C133"/>
       <c r="D133"/>
       <c r="AE133" s="6"/>
       <c r="AF133" s="6"/>
@@ -4672,13 +5222,14 @@
       <c r="AI133" s="6"/>
       <c r="AJ133" s="6"/>
     </row>
-    <row r="134" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B134" s="1" t="s">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B134" t="s">
         <v>314</v>
       </c>
+      <c r="C134"/>
       <c r="D134"/>
       <c r="AE134" s="6"/>
       <c r="AF134" s="6"/>
@@ -4687,13 +5238,14 @@
       <c r="AI134" s="6"/>
       <c r="AJ134" s="6"/>
     </row>
-    <row r="135" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B135" s="1" t="s">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C135" t="s">
+      <c r="B135" t="s">
         <v>322</v>
       </c>
+      <c r="C135"/>
       <c r="D135"/>
       <c r="AE135" s="6"/>
       <c r="AF135" s="6"/>
@@ -4702,13 +5254,14 @@
       <c r="AI135" s="6"/>
       <c r="AJ135" s="6"/>
     </row>
-    <row r="136" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B136" s="1" t="s">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B136" t="s">
         <v>201</v>
       </c>
+      <c r="C136"/>
       <c r="D136"/>
       <c r="AE136" s="6"/>
       <c r="AF136" s="6"/>
@@ -4717,13 +5270,14 @@
       <c r="AI136" s="6"/>
       <c r="AJ136" s="6"/>
     </row>
-    <row r="137" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B137" s="1" t="s">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B137" t="s">
         <v>56</v>
       </c>
+      <c r="C137"/>
       <c r="D137"/>
       <c r="AE137" s="6"/>
       <c r="AF137" s="6"/>
@@ -4732,13 +5286,14 @@
       <c r="AI137" s="6"/>
       <c r="AJ137" s="6"/>
     </row>
-    <row r="138" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B138" s="1" t="s">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B138" t="s">
         <v>86</v>
       </c>
+      <c r="C138"/>
       <c r="D138"/>
       <c r="AE138" s="6"/>
       <c r="AF138" s="6"/>
@@ -4747,13 +5302,14 @@
       <c r="AI138" s="6"/>
       <c r="AJ138" s="6"/>
     </row>
-    <row r="139" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B139" s="1" t="s">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B139" t="s">
         <v>155</v>
       </c>
+      <c r="C139"/>
       <c r="D139"/>
       <c r="AE139" s="6"/>
       <c r="AF139" s="6"/>
@@ -4762,13 +5318,14 @@
       <c r="AI139" s="6"/>
       <c r="AJ139" s="6"/>
     </row>
-    <row r="140" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B140" s="1" t="s">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C140" t="s">
+      <c r="B140" t="s">
         <v>343</v>
       </c>
+      <c r="C140"/>
       <c r="D140"/>
       <c r="AE140" s="6"/>
       <c r="AF140" s="6"/>
@@ -4777,13 +5334,14 @@
       <c r="AI140" s="6"/>
       <c r="AJ140" s="6"/>
     </row>
-    <row r="141" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B141" s="1" t="s">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B141" t="s">
         <v>350</v>
       </c>
+      <c r="C141"/>
       <c r="D141"/>
       <c r="AE141" s="6"/>
       <c r="AF141" s="6"/>
@@ -4792,13 +5350,14 @@
       <c r="AI141" s="6"/>
       <c r="AJ141" s="6"/>
     </row>
-    <row r="142" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B142" s="1" t="s">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B142" t="s">
         <v>357</v>
       </c>
+      <c r="C142"/>
       <c r="D142"/>
       <c r="AE142" s="6"/>
       <c r="AF142" s="6"/>
@@ -4807,13 +5366,14 @@
       <c r="AI142" s="6"/>
       <c r="AJ142" s="6"/>
     </row>
-    <row r="143" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B143" s="1" t="s">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B143" t="s">
         <v>181</v>
       </c>
+      <c r="C143"/>
       <c r="D143"/>
       <c r="AE143" s="6"/>
       <c r="AF143" s="6"/>
@@ -4822,13 +5382,14 @@
       <c r="AI143" s="6"/>
       <c r="AJ143" s="6"/>
     </row>
-    <row r="144" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B144" s="1" t="s">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B144" t="s">
         <v>79</v>
       </c>
+      <c r="C144"/>
       <c r="D144"/>
       <c r="AE144" s="6"/>
       <c r="AF144" s="6"/>
@@ -4837,13 +5398,14 @@
       <c r="AI144" s="6"/>
       <c r="AJ144" s="6"/>
     </row>
-    <row r="145" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B145" s="1" t="s">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B145" t="s">
         <v>97</v>
       </c>
+      <c r="C145"/>
       <c r="D145"/>
       <c r="AE145" s="6"/>
       <c r="AF145" s="6"/>
@@ -4852,13 +5414,14 @@
       <c r="AI145" s="6"/>
       <c r="AJ145" s="6"/>
     </row>
-    <row r="146" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B146" s="1" t="s">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B146" t="s">
         <v>118</v>
       </c>
+      <c r="C146"/>
       <c r="D146"/>
       <c r="AE146" s="6"/>
       <c r="AF146" s="6"/>
@@ -4867,13 +5430,14 @@
       <c r="AI146" s="6"/>
       <c r="AJ146" s="6"/>
     </row>
-    <row r="147" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B147" s="1" t="s">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B147" t="s">
         <v>129</v>
       </c>
+      <c r="C147"/>
       <c r="D147"/>
       <c r="AE147" s="6"/>
       <c r="AF147" s="6"/>
@@ -4882,13 +5446,14 @@
       <c r="AI147" s="6"/>
       <c r="AJ147" s="6"/>
     </row>
-    <row r="148" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B148" s="1" t="s">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B148" t="s">
         <v>141</v>
       </c>
+      <c r="C148"/>
       <c r="D148"/>
       <c r="AE148" s="6"/>
       <c r="AF148" s="6"/>
@@ -4897,13 +5462,14 @@
       <c r="AI148" s="6"/>
       <c r="AJ148" s="6"/>
     </row>
-    <row r="149" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B149" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C149" t="s">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B149" t="s">
         <v>27</v>
       </c>
+      <c r="C149"/>
       <c r="D149"/>
       <c r="AE149" s="6"/>
       <c r="AF149" s="6"/>
@@ -4912,10 +5478,11 @@
       <c r="AI149" s="6"/>
       <c r="AJ149" s="6"/>
     </row>
-    <row r="150" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
         <v>39</v>
       </c>
+      <c r="C150"/>
       <c r="D150"/>
       <c r="AE150" s="6"/>
       <c r="AF150" s="6"/>
@@ -4924,13 +5491,14 @@
       <c r="AI150" s="6"/>
       <c r="AJ150" s="6"/>
     </row>
-    <row r="151" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B151" s="1" t="s">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B151" t="s">
         <v>35</v>
       </c>
+      <c r="C151"/>
       <c r="D151"/>
       <c r="AE151" s="6"/>
       <c r="AF151" s="6"/>
@@ -4939,13 +5507,14 @@
       <c r="AI151" s="6"/>
       <c r="AJ151" s="6"/>
     </row>
-    <row r="152" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B152" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C152" t="s">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B152" t="s">
         <v>142</v>
       </c>
+      <c r="C152"/>
       <c r="D152"/>
       <c r="AE152" s="6"/>
       <c r="AF152" s="6"/>
@@ -4954,13 +5523,14 @@
       <c r="AI152" s="6"/>
       <c r="AJ152" s="6"/>
     </row>
-    <row r="153" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B153" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C153" t="s">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B153" t="s">
         <v>6</v>
       </c>
+      <c r="C153"/>
       <c r="D153"/>
       <c r="AE153" s="6"/>
       <c r="AF153" s="6"/>
@@ -4969,13 +5539,14 @@
       <c r="AI153" s="6"/>
       <c r="AJ153" s="6"/>
     </row>
-    <row r="154" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B154" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C154" t="s">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B154" t="s">
         <v>208</v>
       </c>
+      <c r="C154"/>
       <c r="D154"/>
       <c r="AE154" s="6"/>
       <c r="AF154" s="6"/>
@@ -4984,13 +5555,14 @@
       <c r="AI154" s="6"/>
       <c r="AJ154" s="6"/>
     </row>
-    <row r="155" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B155" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C155" t="s">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B155" t="s">
         <v>218</v>
       </c>
+      <c r="C155"/>
       <c r="D155"/>
       <c r="AE155" s="6"/>
       <c r="AF155" s="6"/>
@@ -4999,10 +5571,11 @@
       <c r="AI155" s="6"/>
       <c r="AJ155" s="6"/>
     </row>
-    <row r="156" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
         <v>192</v>
       </c>
+      <c r="C156"/>
       <c r="D156"/>
       <c r="AE156" s="6"/>
       <c r="AF156" s="6"/>
@@ -5011,10 +5584,11 @@
       <c r="AI156" s="6"/>
       <c r="AJ156" s="6"/>
     </row>
-    <row r="157" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C157" t="s">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
         <v>231</v>
       </c>
+      <c r="C157"/>
       <c r="D157"/>
       <c r="AE157" s="6"/>
       <c r="AF157" s="6"/>
@@ -5023,10 +5597,11 @@
       <c r="AI157" s="6"/>
       <c r="AJ157" s="6"/>
     </row>
-    <row r="158" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
         <v>169</v>
       </c>
+      <c r="C158"/>
       <c r="D158"/>
       <c r="AE158" s="6"/>
       <c r="AF158" s="6"/>
@@ -5035,10 +5610,11 @@
       <c r="AI158" s="6"/>
       <c r="AJ158" s="6"/>
     </row>
-    <row r="159" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
         <v>68</v>
       </c>
+      <c r="C159"/>
       <c r="D159"/>
       <c r="AE159" s="6"/>
       <c r="AF159" s="6"/>
@@ -5047,10 +5623,11 @@
       <c r="AI159" s="6"/>
       <c r="AJ159" s="6"/>
     </row>
-    <row r="160" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="C160" t="s">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
         <v>48</v>
       </c>
+      <c r="C160"/>
       <c r="D160"/>
       <c r="AE160" s="6"/>
       <c r="AF160" s="6"/>
@@ -5059,10 +5636,11 @@
       <c r="AI160" s="6"/>
       <c r="AJ160" s="6"/>
     </row>
-    <row r="161" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C161" t="s">
+    <row r="161" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
         <v>57</v>
       </c>
+      <c r="C161"/>
       <c r="D161"/>
       <c r="AE161" s="6"/>
       <c r="AF161" s="6"/>
@@ -5071,10 +5649,11 @@
       <c r="AI161" s="6"/>
       <c r="AJ161" s="6"/>
     </row>
-    <row r="162" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
+    <row r="162" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>67</v>
       </c>
+      <c r="C162"/>
       <c r="D162"/>
       <c r="AE162" s="6"/>
       <c r="AF162" s="6"/>
@@ -5083,10 +5662,11 @@
       <c r="AI162" s="6"/>
       <c r="AJ162" s="6"/>
     </row>
-    <row r="163" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C163" t="s">
+    <row r="163" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
         <v>190</v>
       </c>
+      <c r="C163"/>
       <c r="D163"/>
       <c r="AE163" s="6"/>
       <c r="AF163" s="6"/>
@@ -5095,10 +5675,11 @@
       <c r="AI163" s="6"/>
       <c r="AJ163" s="6"/>
     </row>
-    <row r="164" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C164" t="s">
+    <row r="164" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
         <v>282</v>
       </c>
+      <c r="C164"/>
       <c r="D164"/>
       <c r="AE164" s="6"/>
       <c r="AF164" s="6"/>
@@ -5107,10 +5688,11 @@
       <c r="AI164" s="6"/>
       <c r="AJ164" s="6"/>
     </row>
-    <row r="165" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
+    <row r="165" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
         <v>119</v>
       </c>
+      <c r="C165"/>
       <c r="D165"/>
       <c r="AE165" s="6"/>
       <c r="AF165" s="6"/>
@@ -5119,16 +5701,18 @@
       <c r="AI165" s="6"/>
       <c r="AJ165" s="6"/>
     </row>
-    <row r="166" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
+    <row r="166" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
         <v>297</v>
       </c>
+      <c r="C166"/>
       <c r="D166"/>
     </row>
-    <row r="167" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
+    <row r="167" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
         <v>304</v>
       </c>
+      <c r="C167"/>
       <c r="D167"/>
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
@@ -5137,10 +5721,11 @@
       <c r="AI167" s="5"/>
       <c r="AJ167" s="5"/>
     </row>
-    <row r="168" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+    <row r="168" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
         <v>315</v>
       </c>
+      <c r="C168"/>
       <c r="D168"/>
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
@@ -5149,16 +5734,18 @@
       <c r="AI168" s="5"/>
       <c r="AJ168" s="5"/>
     </row>
-    <row r="169" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+    <row r="169" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
         <v>200</v>
       </c>
+      <c r="C169"/>
       <c r="D169"/>
     </row>
-    <row r="170" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C170" t="s">
+    <row r="170" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
         <v>326</v>
       </c>
+      <c r="C170"/>
       <c r="D170"/>
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
@@ -5167,10 +5754,11 @@
       <c r="AI170" s="5"/>
       <c r="AJ170" s="5"/>
     </row>
-    <row r="171" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
+    <row r="171" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
         <v>120</v>
       </c>
+      <c r="C171"/>
       <c r="D171"/>
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
@@ -5179,10 +5767,11 @@
       <c r="AI171" s="5"/>
       <c r="AJ171" s="5"/>
     </row>
-    <row r="172" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C172" t="s">
+    <row r="172" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
         <v>338</v>
       </c>
+      <c r="C172"/>
       <c r="D172"/>
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
@@ -5191,10 +5780,11 @@
       <c r="AI172" s="5"/>
       <c r="AJ172" s="5"/>
     </row>
-    <row r="173" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C173" t="s">
+    <row r="173" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
         <v>344</v>
       </c>
+      <c r="C173"/>
       <c r="D173"/>
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
@@ -5203,10 +5793,11 @@
       <c r="AI173" s="5"/>
       <c r="AJ173" s="5"/>
     </row>
-    <row r="174" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C174" t="s">
+    <row r="174" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
         <v>351</v>
       </c>
+      <c r="C174"/>
       <c r="D174"/>
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
@@ -5215,10 +5806,11 @@
       <c r="AI174" s="5"/>
       <c r="AJ174" s="5"/>
     </row>
-    <row r="175" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C175" t="s">
+    <row r="175" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
         <v>358</v>
       </c>
+      <c r="C175"/>
       <c r="D175"/>
       <c r="AE175" s="6"/>
       <c r="AF175" s="6"/>
@@ -5227,10 +5819,11 @@
       <c r="AI175" s="6"/>
       <c r="AJ175" s="6"/>
     </row>
-    <row r="176" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C176" t="s">
+    <row r="176" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
         <v>360</v>
       </c>
+      <c r="C176"/>
       <c r="D176"/>
       <c r="AE176" s="6"/>
       <c r="AF176" s="6"/>
@@ -5239,10 +5832,11 @@
       <c r="AI176" s="6"/>
       <c r="AJ176" s="6"/>
     </row>
-    <row r="177" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C177" t="s">
+    <row r="177" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
         <v>363</v>
       </c>
+      <c r="C177"/>
       <c r="D177"/>
       <c r="AE177" s="6"/>
       <c r="AF177" s="6"/>
@@ -5251,10 +5845,11 @@
       <c r="AI177" s="6"/>
       <c r="AJ177" s="6"/>
     </row>
-    <row r="178" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C178" t="s">
+    <row r="178" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
         <v>98</v>
       </c>
+      <c r="C178"/>
       <c r="D178"/>
       <c r="AE178" s="6"/>
       <c r="AF178" s="6"/>
@@ -5263,10 +5858,11 @@
       <c r="AI178" s="6"/>
       <c r="AJ178" s="6"/>
     </row>
-    <row r="179" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C179" t="s">
+    <row r="179" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
         <v>368</v>
       </c>
+      <c r="C179"/>
       <c r="D179"/>
       <c r="AE179" s="6"/>
       <c r="AF179" s="6"/>
@@ -5275,10 +5871,11 @@
       <c r="AI179" s="6"/>
       <c r="AJ179" s="6"/>
     </row>
-    <row r="180" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C180" t="s">
+    <row r="180" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
         <v>371</v>
       </c>
+      <c r="C180"/>
       <c r="D180"/>
       <c r="AE180" s="6"/>
       <c r="AF180" s="6"/>
@@ -5287,10 +5884,11 @@
       <c r="AI180" s="6"/>
       <c r="AJ180" s="6"/>
     </row>
-    <row r="181" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C181" t="s">
+    <row r="181" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
         <v>376</v>
       </c>
+      <c r="C181"/>
       <c r="D181"/>
       <c r="AE181" s="6"/>
       <c r="AF181" s="6"/>
@@ -5299,10 +5897,11 @@
       <c r="AI181" s="6"/>
       <c r="AJ181" s="6"/>
     </row>
-    <row r="182" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
+    <row r="182" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
         <v>232</v>
       </c>
+      <c r="C182"/>
       <c r="D182"/>
       <c r="AE182" s="6"/>
       <c r="AF182" s="6"/>
@@ -5311,10 +5910,11 @@
       <c r="AI182" s="6"/>
       <c r="AJ182" s="6"/>
     </row>
-    <row r="183" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C183" t="s">
+    <row r="183" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
         <v>383</v>
       </c>
+      <c r="C183"/>
       <c r="D183"/>
       <c r="AE183" s="6"/>
       <c r="AF183" s="6"/>
@@ -5323,10 +5923,11 @@
       <c r="AI183" s="6"/>
       <c r="AJ183" s="6"/>
     </row>
-    <row r="184" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C184" t="s">
+    <row r="184" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
         <v>386</v>
       </c>
+      <c r="C184"/>
       <c r="D184"/>
       <c r="AE184" s="6"/>
       <c r="AF184" s="6"/>
@@ -5335,10 +5936,11 @@
       <c r="AI184" s="6"/>
       <c r="AJ184" s="6"/>
     </row>
-    <row r="185" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C185" t="s">
+    <row r="185" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
         <v>390</v>
       </c>
+      <c r="C185"/>
       <c r="D185"/>
       <c r="AE185" s="6"/>
       <c r="AF185" s="6"/>
@@ -5347,10 +5949,11 @@
       <c r="AI185" s="6"/>
       <c r="AJ185" s="6"/>
     </row>
-    <row r="186" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C186" t="s">
+    <row r="186" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
         <v>395</v>
       </c>
+      <c r="C186"/>
       <c r="D186"/>
       <c r="AE186" s="6"/>
       <c r="AF186" s="6"/>
@@ -5359,10 +5962,11 @@
       <c r="AI186" s="6"/>
       <c r="AJ186" s="6"/>
     </row>
-    <row r="187" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
+    <row r="187" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
         <v>80</v>
       </c>
+      <c r="C187"/>
       <c r="D187"/>
       <c r="AE187" s="6"/>
       <c r="AF187" s="6"/>
@@ -5371,10 +5975,11 @@
       <c r="AI187" s="6"/>
       <c r="AJ187" s="6"/>
     </row>
-    <row r="188" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C188" t="s">
+    <row r="188" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
         <v>99</v>
       </c>
+      <c r="C188"/>
       <c r="D188"/>
       <c r="AE188" s="6"/>
       <c r="AF188" s="6"/>
@@ -5383,10 +5988,11 @@
       <c r="AI188" s="6"/>
       <c r="AJ188" s="6"/>
     </row>
-    <row r="189" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C189" t="s">
+    <row r="189" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
         <v>404</v>
       </c>
+      <c r="C189"/>
       <c r="D189"/>
       <c r="AE189" s="6"/>
       <c r="AF189" s="6"/>
@@ -5395,10 +6001,11 @@
       <c r="AI189" s="6"/>
       <c r="AJ189" s="6"/>
     </row>
-    <row r="190" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C190" t="s">
+    <row r="190" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
         <v>406</v>
       </c>
+      <c r="C190"/>
       <c r="D190"/>
       <c r="AE190" s="6"/>
       <c r="AF190" s="6"/>
@@ -5407,10 +6014,11 @@
       <c r="AI190" s="6"/>
       <c r="AJ190" s="6"/>
     </row>
-    <row r="191" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C191" t="s">
+    <row r="191" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
         <v>409</v>
       </c>
+      <c r="C191"/>
       <c r="D191"/>
       <c r="AE191" s="6"/>
       <c r="AF191" s="6"/>
@@ -5419,10 +6027,11 @@
       <c r="AI191" s="6"/>
       <c r="AJ191" s="6"/>
     </row>
-    <row r="192" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C192" t="s">
+    <row r="192" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
         <v>413</v>
       </c>
+      <c r="C192"/>
       <c r="D192"/>
       <c r="AE192" s="6"/>
       <c r="AF192" s="6"/>
@@ -5431,10 +6040,11 @@
       <c r="AI192" s="6"/>
       <c r="AJ192" s="6"/>
     </row>
-    <row r="193" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C193" t="s">
+    <row r="193" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
         <v>417</v>
       </c>
+      <c r="C193"/>
       <c r="D193"/>
       <c r="AE193" s="6"/>
       <c r="AF193" s="6"/>
@@ -5443,10 +6053,11 @@
       <c r="AI193" s="6"/>
       <c r="AJ193" s="6"/>
     </row>
-    <row r="194" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C194" t="s">
+    <row r="194" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
         <v>209</v>
       </c>
+      <c r="C194"/>
       <c r="D194"/>
       <c r="AE194" s="6"/>
       <c r="AF194" s="6"/>
@@ -5455,10 +6066,11 @@
       <c r="AI194" s="6"/>
       <c r="AJ194" s="6"/>
     </row>
-    <row r="195" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C195" t="s">
+    <row r="195" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
         <v>450</v>
       </c>
+      <c r="C195"/>
       <c r="D195"/>
       <c r="AE195" s="6"/>
       <c r="AF195" s="6"/>
@@ -5467,10 +6079,11 @@
       <c r="AI195" s="6"/>
       <c r="AJ195" s="6"/>
     </row>
-    <row r="196" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C196" t="s">
+    <row r="196" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
         <v>451</v>
       </c>
+      <c r="C196"/>
       <c r="D196"/>
       <c r="AE196" s="6"/>
       <c r="AF196" s="6"/>
@@ -5479,10 +6092,11 @@
       <c r="AI196" s="6"/>
       <c r="AJ196" s="6"/>
     </row>
-    <row r="197" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C197" t="s">
+    <row r="197" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
         <v>452</v>
       </c>
+      <c r="C197"/>
       <c r="D197"/>
       <c r="AE197" s="6"/>
       <c r="AF197" s="6"/>
@@ -5491,10 +6105,11 @@
       <c r="AI197" s="6"/>
       <c r="AJ197" s="6"/>
     </row>
-    <row r="198" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C198" t="s">
+    <row r="198" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
+      <c r="C198"/>
       <c r="D198"/>
       <c r="AE198" s="6"/>
       <c r="AF198" s="6"/>
@@ -5503,10 +6118,11 @@
       <c r="AI198" s="6"/>
       <c r="AJ198" s="6"/>
     </row>
-    <row r="199" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C199" t="s">
+    <row r="199" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
         <v>453</v>
       </c>
+      <c r="C199"/>
       <c r="D199"/>
       <c r="AE199" s="6"/>
       <c r="AF199" s="6"/>
@@ -5515,10 +6131,11 @@
       <c r="AI199" s="6"/>
       <c r="AJ199" s="6"/>
     </row>
-    <row r="200" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C200" t="s">
+    <row r="200" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
         <v>454</v>
       </c>
+      <c r="C200"/>
       <c r="D200"/>
       <c r="AE200" s="6"/>
       <c r="AF200" s="6"/>
@@ -5527,10 +6144,11 @@
       <c r="AI200" s="6"/>
       <c r="AJ200" s="6"/>
     </row>
-    <row r="201" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C201" t="s">
+    <row r="201" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
         <v>456</v>
       </c>
+      <c r="C201"/>
       <c r="D201"/>
       <c r="AE201" s="6"/>
       <c r="AF201" s="6"/>
@@ -5539,10 +6157,11 @@
       <c r="AI201" s="6"/>
       <c r="AJ201" s="6"/>
     </row>
-    <row r="202" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C202" t="s">
+    <row r="202" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
         <v>72</v>
       </c>
+      <c r="C202"/>
       <c r="D202"/>
       <c r="AE202" s="6"/>
       <c r="AF202" s="6"/>
@@ -5551,10 +6170,11 @@
       <c r="AI202" s="6"/>
       <c r="AJ202" s="6"/>
     </row>
-    <row r="203" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C203" t="s">
+    <row r="203" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
         <v>49</v>
       </c>
+      <c r="C203"/>
       <c r="D203"/>
       <c r="AE203" s="6"/>
       <c r="AF203" s="6"/>
@@ -5563,10 +6183,11 @@
       <c r="AI203" s="6"/>
       <c r="AJ203" s="6"/>
     </row>
-    <row r="204" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C204" t="s">
+    <row r="204" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
         <v>459</v>
       </c>
+      <c r="C204"/>
       <c r="D204"/>
       <c r="AE204" s="6"/>
       <c r="AF204" s="6"/>
@@ -5575,10 +6196,11 @@
       <c r="AI204" s="6"/>
       <c r="AJ204" s="6"/>
     </row>
-    <row r="205" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C205" t="s">
+    <row r="205" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
         <v>59</v>
       </c>
+      <c r="C205"/>
       <c r="D205"/>
       <c r="AE205" s="6"/>
       <c r="AF205" s="6"/>
@@ -5587,10 +6209,11 @@
       <c r="AI205" s="6"/>
       <c r="AJ205" s="6"/>
     </row>
-    <row r="206" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C206" t="s">
+    <row r="206" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
         <v>462</v>
       </c>
+      <c r="C206"/>
       <c r="D206"/>
       <c r="AE206" s="6"/>
       <c r="AF206" s="6"/>
@@ -5599,10 +6222,11 @@
       <c r="AI206" s="6"/>
       <c r="AJ206" s="6"/>
     </row>
-    <row r="207" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C207" t="s">
+    <row r="207" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
         <v>272</v>
       </c>
+      <c r="C207"/>
       <c r="D207"/>
       <c r="AE207" s="6"/>
       <c r="AF207" s="6"/>
@@ -5611,10 +6235,11 @@
       <c r="AI207" s="6"/>
       <c r="AJ207" s="6"/>
     </row>
-    <row r="208" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C208" t="s">
+    <row r="208" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
         <v>464</v>
       </c>
+      <c r="C208"/>
       <c r="D208"/>
       <c r="AE208" s="6"/>
       <c r="AF208" s="6"/>
@@ -5623,10 +6248,11 @@
       <c r="AI208" s="6"/>
       <c r="AJ208" s="6"/>
     </row>
-    <row r="209" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C209" t="s">
+    <row r="209" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
         <v>88</v>
       </c>
+      <c r="C209"/>
       <c r="D209"/>
       <c r="AE209" s="6"/>
       <c r="AF209" s="6"/>
@@ -5635,10 +6261,11 @@
       <c r="AI209" s="6"/>
       <c r="AJ209" s="6"/>
     </row>
-    <row r="210" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C210" t="s">
+    <row r="210" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
         <v>467</v>
       </c>
+      <c r="C210"/>
       <c r="D210"/>
       <c r="AE210" s="6"/>
       <c r="AF210" s="6"/>
@@ -5647,10 +6274,11 @@
       <c r="AI210" s="6"/>
       <c r="AJ210" s="6"/>
     </row>
-    <row r="211" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C211" t="s">
+    <row r="211" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
         <v>133</v>
       </c>
+      <c r="C211"/>
       <c r="D211"/>
       <c r="AE211" s="6"/>
       <c r="AF211" s="6"/>
@@ -5659,10 +6287,11 @@
       <c r="AI211" s="6"/>
       <c r="AJ211" s="6"/>
     </row>
-    <row r="212" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C212" t="s">
+    <row r="212" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
         <v>469</v>
       </c>
+      <c r="C212"/>
       <c r="D212"/>
       <c r="AE212" s="6"/>
       <c r="AF212" s="6"/>
@@ -5671,10 +6300,11 @@
       <c r="AI212" s="6"/>
       <c r="AJ212" s="6"/>
     </row>
-    <row r="213" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C213" t="s">
+    <row r="213" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
         <v>470</v>
       </c>
+      <c r="C213"/>
       <c r="D213"/>
       <c r="AE213" s="6"/>
       <c r="AF213" s="6"/>
@@ -5683,10 +6313,11 @@
       <c r="AI213" s="6"/>
       <c r="AJ213" s="6"/>
     </row>
-    <row r="214" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C214" t="s">
+    <row r="214" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
         <v>364</v>
       </c>
+      <c r="C214"/>
       <c r="D214"/>
       <c r="AE214" s="6"/>
       <c r="AF214" s="6"/>
@@ -5695,10 +6326,11 @@
       <c r="AI214" s="6"/>
       <c r="AJ214" s="6"/>
     </row>
-    <row r="215" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C215" t="s">
+    <row r="215" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
         <v>71</v>
       </c>
+      <c r="C215"/>
       <c r="D215"/>
       <c r="AE215" s="6"/>
       <c r="AF215" s="6"/>
@@ -5707,10 +6339,11 @@
       <c r="AI215" s="6"/>
       <c r="AJ215" s="6"/>
     </row>
-    <row r="216" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C216" t="s">
+    <row r="216" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
         <v>472</v>
       </c>
+      <c r="C216"/>
       <c r="D216"/>
       <c r="AE216" s="6"/>
       <c r="AF216" s="6"/>
@@ -5719,10 +6352,11 @@
       <c r="AI216" s="6"/>
       <c r="AJ216" s="6"/>
     </row>
-    <row r="217" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C217" t="s">
+    <row r="217" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
         <v>261</v>
       </c>
+      <c r="C217"/>
       <c r="D217"/>
       <c r="AE217" s="6"/>
       <c r="AF217" s="6"/>
@@ -5731,10 +6365,11 @@
       <c r="AI217" s="6"/>
       <c r="AJ217" s="6"/>
     </row>
-    <row r="218" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C218" t="s">
+    <row r="218" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
         <v>87</v>
       </c>
+      <c r="C218"/>
       <c r="D218"/>
       <c r="AE218"/>
       <c r="AF218"/>
@@ -5743,10 +6378,11 @@
       <c r="AI218"/>
       <c r="AJ218"/>
     </row>
-    <row r="219" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C219" t="s">
+    <row r="219" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
         <v>172</v>
       </c>
+      <c r="C219"/>
       <c r="D219"/>
       <c r="AE219"/>
       <c r="AF219"/>
@@ -5755,10 +6391,11 @@
       <c r="AI219"/>
       <c r="AJ219"/>
     </row>
-    <row r="220" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C220" t="s">
+    <row r="220" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
         <v>475</v>
       </c>
+      <c r="C220"/>
       <c r="D220"/>
       <c r="AE220"/>
       <c r="AF220"/>
@@ -5767,10 +6404,11 @@
       <c r="AI220"/>
       <c r="AJ220"/>
     </row>
-    <row r="221" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C221" t="s">
+    <row r="221" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
         <v>476</v>
       </c>
+      <c r="C221"/>
       <c r="D221"/>
       <c r="AE221"/>
       <c r="AF221"/>
@@ -5779,10 +6417,11 @@
       <c r="AI221"/>
       <c r="AJ221"/>
     </row>
-    <row r="222" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C222" t="s">
+    <row r="222" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
         <v>478</v>
       </c>
+      <c r="C222"/>
       <c r="D222"/>
       <c r="AE222"/>
       <c r="AF222"/>
@@ -5791,10 +6430,11 @@
       <c r="AI222"/>
       <c r="AJ222"/>
     </row>
-    <row r="223" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C223" t="s">
+    <row r="223" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
         <v>480</v>
       </c>
+      <c r="C223"/>
       <c r="D223"/>
       <c r="AE223"/>
       <c r="AF223"/>
@@ -5803,9 +6443,9 @@
       <c r="AI223"/>
       <c r="AJ223"/>
     </row>
-    <row r="224" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C224" s="1" t="s">
-        <v>550</v>
+    <row r="224" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B224" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="D224"/>
       <c r="AE224"/>
@@ -5815,9 +6455,9 @@
       <c r="AI224"/>
       <c r="AJ224"/>
     </row>
-    <row r="225" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C225" s="1" t="s">
-        <v>554</v>
+    <row r="225" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B225" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="D225"/>
       <c r="AE225"/>
@@ -5827,10 +6467,11 @@
       <c r="AI225"/>
       <c r="AJ225"/>
     </row>
-    <row r="226" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C226" t="s">
+    <row r="226" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
         <v>509</v>
       </c>
+      <c r="C226"/>
       <c r="D226"/>
       <c r="AE226"/>
       <c r="AF226"/>
@@ -5839,10 +6480,11 @@
       <c r="AI226"/>
       <c r="AJ226"/>
     </row>
-    <row r="227" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C227" t="s">
+    <row r="227" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
         <v>12</v>
       </c>
+      <c r="C227"/>
       <c r="D227"/>
       <c r="AE227"/>
       <c r="AF227"/>
@@ -5851,10 +6493,11 @@
       <c r="AI227"/>
       <c r="AJ227"/>
     </row>
-    <row r="228" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C228" t="s">
+    <row r="228" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
         <v>324</v>
       </c>
+      <c r="C228"/>
       <c r="D228"/>
       <c r="AE228"/>
       <c r="AF228"/>
@@ -5863,10 +6506,11 @@
       <c r="AI228"/>
       <c r="AJ228"/>
     </row>
-    <row r="229" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C229" t="s">
+    <row r="229" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
         <v>330</v>
       </c>
+      <c r="C229"/>
       <c r="D229"/>
       <c r="AE229"/>
       <c r="AF229"/>
@@ -5875,10 +6519,11 @@
       <c r="AI229"/>
       <c r="AJ229"/>
     </row>
-    <row r="230" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C230" t="s">
+    <row r="230" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
         <v>16</v>
       </c>
+      <c r="C230"/>
       <c r="D230"/>
       <c r="AE230"/>
       <c r="AF230"/>
@@ -5887,10 +6532,11 @@
       <c r="AI230"/>
       <c r="AJ230"/>
     </row>
-    <row r="231" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C231" t="s">
+    <row r="231" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
         <v>341</v>
       </c>
+      <c r="C231"/>
       <c r="D231"/>
       <c r="AE231"/>
       <c r="AF231"/>
@@ -5899,10 +6545,11 @@
       <c r="AI231"/>
       <c r="AJ231"/>
     </row>
-    <row r="232" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C232" t="s">
+    <row r="232" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
         <v>348</v>
       </c>
+      <c r="C232"/>
       <c r="D232"/>
       <c r="AE232"/>
       <c r="AF232"/>
@@ -5911,10 +6558,11 @@
       <c r="AI232"/>
       <c r="AJ232"/>
     </row>
-    <row r="233" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C233" t="s">
+    <row r="233" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
         <v>355</v>
       </c>
+      <c r="C233"/>
       <c r="D233"/>
       <c r="AE233"/>
       <c r="AF233"/>
@@ -5923,10 +6571,11 @@
       <c r="AI233"/>
       <c r="AJ233"/>
     </row>
-    <row r="234" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C234" t="s">
+    <row r="234" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
         <v>121</v>
       </c>
+      <c r="C234"/>
       <c r="D234"/>
       <c r="AE234"/>
       <c r="AF234"/>
@@ -5935,10 +6584,11 @@
       <c r="AI234"/>
       <c r="AJ234"/>
     </row>
-    <row r="235" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C235" t="s">
+    <row r="235" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
         <v>339</v>
       </c>
+      <c r="C235"/>
       <c r="D235"/>
       <c r="AE235"/>
       <c r="AF235"/>
@@ -5947,10 +6597,11 @@
       <c r="AI235"/>
       <c r="AJ235"/>
     </row>
-    <row r="236" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C236" t="s">
+    <row r="236" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
         <v>105</v>
       </c>
+      <c r="C236"/>
       <c r="D236"/>
       <c r="AE236"/>
       <c r="AF236"/>
@@ -5959,10 +6610,11 @@
       <c r="AI236"/>
       <c r="AJ236"/>
     </row>
-    <row r="237" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C237" t="s">
+    <row r="237" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
         <v>83</v>
       </c>
+      <c r="C237"/>
       <c r="D237"/>
       <c r="AE237"/>
       <c r="AF237"/>
@@ -5971,10 +6623,11 @@
       <c r="AI237"/>
       <c r="AJ237"/>
     </row>
-    <row r="238" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C238" t="s">
+    <row r="238" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
         <v>123</v>
       </c>
+      <c r="C238"/>
       <c r="D238"/>
       <c r="AE238"/>
       <c r="AF238"/>
@@ -5983,10 +6636,11 @@
       <c r="AI238"/>
       <c r="AJ238"/>
     </row>
-    <row r="239" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C239" t="s">
+    <row r="239" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
         <v>29</v>
       </c>
+      <c r="C239"/>
       <c r="D239"/>
       <c r="AE239"/>
       <c r="AF239"/>
@@ -5995,10 +6649,11 @@
       <c r="AI239"/>
       <c r="AJ239"/>
     </row>
-    <row r="240" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C240" t="s">
+    <row r="240" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
         <v>40</v>
       </c>
+      <c r="C240"/>
       <c r="D240"/>
       <c r="AE240"/>
       <c r="AF240"/>
@@ -6007,10 +6662,11 @@
       <c r="AI240"/>
       <c r="AJ240"/>
     </row>
-    <row r="241" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C241" t="s">
+    <row r="241" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
         <v>102</v>
       </c>
+      <c r="C241"/>
       <c r="D241"/>
       <c r="AE241"/>
       <c r="AF241"/>
@@ -6019,10 +6675,11 @@
       <c r="AI241"/>
       <c r="AJ241"/>
     </row>
-    <row r="242" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C242" t="s">
+    <row r="242" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
         <v>131</v>
       </c>
+      <c r="C242"/>
       <c r="D242"/>
       <c r="AE242"/>
       <c r="AF242"/>
@@ -6031,10 +6688,11 @@
       <c r="AI242"/>
       <c r="AJ242"/>
     </row>
-    <row r="243" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C243" t="s">
+    <row r="243" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
         <v>26</v>
       </c>
+      <c r="C243"/>
       <c r="D243"/>
       <c r="AE243"/>
       <c r="AF243"/>
@@ -6043,10 +6701,11 @@
       <c r="AI243"/>
       <c r="AJ243"/>
     </row>
-    <row r="244" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C244" t="s">
+    <row r="244" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
         <v>82</v>
       </c>
+      <c r="C244"/>
       <c r="D244"/>
       <c r="AE244"/>
       <c r="AF244"/>
@@ -6055,10 +6714,11 @@
       <c r="AI244"/>
       <c r="AJ244"/>
     </row>
-    <row r="245" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C245" t="s">
+    <row r="245" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
         <v>225</v>
       </c>
+      <c r="C245"/>
       <c r="D245"/>
       <c r="AE245"/>
       <c r="AF245"/>
@@ -6067,10 +6727,11 @@
       <c r="AI245"/>
       <c r="AJ245"/>
     </row>
-    <row r="246" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C246" t="s">
+    <row r="246" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
         <v>36</v>
       </c>
+      <c r="C246"/>
       <c r="D246"/>
       <c r="AE246"/>
       <c r="AF246"/>
@@ -6079,10 +6740,11 @@
       <c r="AI246"/>
       <c r="AJ246"/>
     </row>
-    <row r="247" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C247" t="s">
+    <row r="247" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
         <v>101</v>
       </c>
+      <c r="C247"/>
       <c r="D247"/>
       <c r="AE247"/>
       <c r="AF247"/>
@@ -6091,10 +6753,11 @@
       <c r="AI247"/>
       <c r="AJ247"/>
     </row>
-    <row r="248" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C248" t="s">
+    <row r="248" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
         <v>84</v>
       </c>
+      <c r="C248"/>
       <c r="D248"/>
       <c r="AE248"/>
       <c r="AF248"/>
@@ -6103,10 +6766,11 @@
       <c r="AI248"/>
       <c r="AJ248"/>
     </row>
-    <row r="249" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C249" t="s">
+    <row r="249" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
         <v>104</v>
       </c>
+      <c r="C249"/>
       <c r="D249"/>
       <c r="AE249"/>
       <c r="AF249"/>
@@ -6115,10 +6779,11 @@
       <c r="AI249"/>
       <c r="AJ249"/>
     </row>
-    <row r="250" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C250" t="s">
-        <v>557</v>
-      </c>
+    <row r="250" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>539</v>
+      </c>
+      <c r="C250"/>
       <c r="D250"/>
       <c r="AE250"/>
       <c r="AF250"/>
@@ -6127,10 +6792,11 @@
       <c r="AI250"/>
       <c r="AJ250"/>
     </row>
-    <row r="251" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C251" t="s">
+    <row r="251" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
         <v>283</v>
       </c>
+      <c r="C251"/>
       <c r="D251"/>
       <c r="AE251"/>
       <c r="AF251"/>
@@ -6139,10 +6805,11 @@
       <c r="AI251"/>
       <c r="AJ251"/>
     </row>
-    <row r="252" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C252" t="s">
+    <row r="252" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
         <v>422</v>
       </c>
+      <c r="C252"/>
       <c r="D252"/>
       <c r="AE252"/>
       <c r="AF252"/>
@@ -6151,10 +6818,11 @@
       <c r="AI252"/>
       <c r="AJ252"/>
     </row>
-    <row r="253" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C253" t="s">
+    <row r="253" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
         <v>424</v>
       </c>
+      <c r="C253"/>
       <c r="D253"/>
       <c r="AE253"/>
       <c r="AF253"/>
@@ -6163,10 +6831,11 @@
       <c r="AI253"/>
       <c r="AJ253"/>
     </row>
-    <row r="254" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C254" t="s">
+    <row r="254" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
         <v>224</v>
       </c>
+      <c r="C254"/>
       <c r="D254"/>
       <c r="AE254"/>
       <c r="AF254"/>
@@ -6175,10 +6844,11 @@
       <c r="AI254"/>
       <c r="AJ254"/>
     </row>
-    <row r="255" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C255" t="s">
+    <row r="255" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
         <v>144</v>
       </c>
+      <c r="C255"/>
       <c r="D255"/>
       <c r="AE255"/>
       <c r="AF255"/>
@@ -6187,10 +6857,11 @@
       <c r="AI255"/>
       <c r="AJ255"/>
     </row>
-    <row r="256" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C256" t="s">
+    <row r="256" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
         <v>103</v>
       </c>
+      <c r="C256"/>
       <c r="D256"/>
       <c r="AE256"/>
       <c r="AF256"/>
@@ -6199,10 +6870,11 @@
       <c r="AI256"/>
       <c r="AJ256"/>
     </row>
-    <row r="257" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C257" t="s">
+    <row r="257" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
         <v>122</v>
       </c>
+      <c r="C257"/>
       <c r="D257"/>
       <c r="AE257"/>
       <c r="AF257"/>
@@ -6211,10 +6883,11 @@
       <c r="AI257"/>
       <c r="AJ257"/>
     </row>
-    <row r="258" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C258" t="s">
+    <row r="258" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
         <v>130</v>
       </c>
+      <c r="C258"/>
       <c r="D258"/>
       <c r="AE258"/>
       <c r="AF258"/>
@@ -6223,10 +6896,11 @@
       <c r="AI258"/>
       <c r="AJ258"/>
     </row>
-    <row r="259" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C259" t="s">
+    <row r="259" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
         <v>17</v>
       </c>
+      <c r="C259"/>
       <c r="D259"/>
       <c r="AE259"/>
       <c r="AF259"/>
@@ -6235,10 +6909,11 @@
       <c r="AI259"/>
       <c r="AJ259"/>
     </row>
-    <row r="260" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C260" t="s">
+    <row r="260" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
         <v>143</v>
       </c>
+      <c r="C260"/>
       <c r="AE260"/>
       <c r="AF260"/>
       <c r="AG260"/>
@@ -6246,10 +6921,11 @@
       <c r="AI260"/>
       <c r="AJ260"/>
     </row>
-    <row r="261" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C261" t="s">
+    <row r="261" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
         <v>81</v>
       </c>
+      <c r="C261"/>
       <c r="AE261"/>
       <c r="AF261"/>
       <c r="AG261"/>
@@ -6257,10 +6933,11 @@
       <c r="AI261"/>
       <c r="AJ261"/>
     </row>
-    <row r="262" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C262" t="s">
+    <row r="262" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
         <v>100</v>
       </c>
+      <c r="C262"/>
       <c r="D262"/>
       <c r="AE262"/>
       <c r="AF262"/>
@@ -6269,10 +6946,11 @@
       <c r="AI262"/>
       <c r="AJ262"/>
     </row>
-    <row r="263" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C263" t="s">
+    <row r="263" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
         <v>156</v>
       </c>
+      <c r="C263"/>
       <c r="D263"/>
       <c r="AE263"/>
       <c r="AF263"/>
@@ -6281,10 +6959,11 @@
       <c r="AI263"/>
       <c r="AJ263"/>
     </row>
-    <row r="264" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C264" t="s">
+    <row r="264" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
         <v>170</v>
       </c>
+      <c r="C264"/>
       <c r="D264"/>
       <c r="AE264"/>
       <c r="AF264"/>
@@ -6293,10 +6972,11 @@
       <c r="AI264"/>
       <c r="AJ264"/>
     </row>
-    <row r="265" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C265" t="s">
+    <row r="265" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
         <v>37</v>
       </c>
+      <c r="C265"/>
       <c r="D265"/>
       <c r="AE265"/>
       <c r="AF265"/>
@@ -6305,10 +6985,11 @@
       <c r="AI265"/>
       <c r="AJ265"/>
     </row>
-    <row r="266" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C266" t="s">
+    <row r="266" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
         <v>69</v>
       </c>
+      <c r="C266"/>
       <c r="D266"/>
       <c r="AE266"/>
       <c r="AF266"/>
@@ -6317,10 +6998,11 @@
       <c r="AI266"/>
       <c r="AJ266"/>
     </row>
-    <row r="267" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C267" t="s">
+    <row r="267" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
         <v>41</v>
       </c>
+      <c r="C267"/>
       <c r="D267"/>
       <c r="AE267"/>
       <c r="AF267"/>
@@ -6329,10 +7011,11 @@
       <c r="AI267"/>
       <c r="AJ267"/>
     </row>
-    <row r="268" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C268" t="s">
+    <row r="268" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
         <v>42</v>
       </c>
+      <c r="C268"/>
       <c r="D268"/>
       <c r="AE268"/>
       <c r="AF268"/>
@@ -6341,10 +7024,11 @@
       <c r="AI268"/>
       <c r="AJ268"/>
     </row>
-    <row r="269" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C269" t="s">
+    <row r="269" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
         <v>43</v>
       </c>
+      <c r="C269"/>
       <c r="D269"/>
       <c r="AE269"/>
       <c r="AF269"/>
@@ -6353,10 +7037,11 @@
       <c r="AI269"/>
       <c r="AJ269"/>
     </row>
-    <row r="270" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C270" t="s">
+    <row r="270" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
         <v>44</v>
       </c>
+      <c r="C270"/>
       <c r="D270"/>
       <c r="AE270"/>
       <c r="AF270"/>
@@ -6365,10 +7050,11 @@
       <c r="AI270"/>
       <c r="AJ270"/>
     </row>
-    <row r="271" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C271" t="s">
+    <row r="271" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
         <v>51</v>
       </c>
+      <c r="C271"/>
       <c r="D271"/>
       <c r="AE271"/>
       <c r="AF271"/>
@@ -6377,10 +7063,11 @@
       <c r="AI271"/>
       <c r="AJ271"/>
     </row>
-    <row r="272" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C272" t="s">
+    <row r="272" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
         <v>52</v>
       </c>
+      <c r="C272"/>
       <c r="D272"/>
       <c r="AE272"/>
       <c r="AF272"/>
@@ -6389,10 +7076,11 @@
       <c r="AI272"/>
       <c r="AJ272"/>
     </row>
-    <row r="273" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C273" t="s">
+    <row r="273" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
         <v>53</v>
       </c>
+      <c r="C273"/>
       <c r="D273"/>
       <c r="AE273"/>
       <c r="AF273"/>
@@ -6401,10 +7089,11 @@
       <c r="AI273"/>
       <c r="AJ273"/>
     </row>
-    <row r="274" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C274" t="s">
+    <row r="274" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
         <v>54</v>
       </c>
+      <c r="C274"/>
       <c r="D274"/>
       <c r="AE274"/>
       <c r="AF274"/>
@@ -6413,10 +7102,11 @@
       <c r="AI274"/>
       <c r="AJ274"/>
     </row>
-    <row r="275" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C275" t="s">
+    <row r="275" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
         <v>60</v>
       </c>
+      <c r="C275"/>
       <c r="D275"/>
       <c r="AE275"/>
       <c r="AF275"/>
@@ -6425,10 +7115,11 @@
       <c r="AI275"/>
       <c r="AJ275"/>
     </row>
-    <row r="276" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C276" t="s">
+    <row r="276" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
         <v>73</v>
       </c>
+      <c r="C276"/>
       <c r="D276"/>
       <c r="AE276"/>
       <c r="AF276"/>
@@ -6437,10 +7128,11 @@
       <c r="AI276"/>
       <c r="AJ276"/>
     </row>
-    <row r="277" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C277" t="s">
+    <row r="277" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
         <v>89</v>
       </c>
+      <c r="C277"/>
       <c r="D277"/>
       <c r="AE277" s="6"/>
       <c r="AF277" s="6"/>
@@ -6449,10 +7141,11 @@
       <c r="AI277" s="6"/>
       <c r="AJ277" s="6"/>
     </row>
-    <row r="278" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C278" t="s">
+    <row r="278" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
         <v>108</v>
       </c>
+      <c r="C278"/>
       <c r="D278"/>
       <c r="AE278" s="6"/>
       <c r="AF278" s="6"/>
@@ -6461,10 +7154,11 @@
       <c r="AI278" s="6"/>
       <c r="AJ278" s="6"/>
     </row>
-    <row r="279" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C279" t="s">
+    <row r="279" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
         <v>124</v>
       </c>
+      <c r="C279"/>
       <c r="D279"/>
       <c r="AE279" s="6"/>
       <c r="AF279" s="6"/>
@@ -6473,10 +7167,11 @@
       <c r="AI279" s="6"/>
       <c r="AJ279" s="6"/>
     </row>
-    <row r="280" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C280" t="s">
+    <row r="280" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
         <v>134</v>
       </c>
+      <c r="C280"/>
       <c r="D280"/>
       <c r="AE280" s="6"/>
       <c r="AF280" s="6"/>
@@ -6485,10 +7180,11 @@
       <c r="AI280" s="6"/>
       <c r="AJ280" s="6"/>
     </row>
-    <row r="281" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C281" t="s">
+    <row r="281" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
         <v>146</v>
       </c>
+      <c r="C281"/>
       <c r="D281"/>
       <c r="AE281" s="6"/>
       <c r="AF281" s="6"/>
@@ -6497,10 +7193,11 @@
       <c r="AI281" s="6"/>
       <c r="AJ281" s="6"/>
     </row>
-    <row r="282" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C282" t="s">
+    <row r="282" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
         <v>160</v>
       </c>
+      <c r="C282"/>
       <c r="D282"/>
       <c r="AE282" s="6"/>
       <c r="AF282" s="6"/>
@@ -6509,10 +7206,11 @@
       <c r="AI282" s="6"/>
       <c r="AJ282" s="6"/>
     </row>
-    <row r="283" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C283" t="s">
+    <row r="283" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
         <v>173</v>
       </c>
+      <c r="C283"/>
       <c r="D283"/>
       <c r="AE283" s="6"/>
       <c r="AF283" s="6"/>
@@ -6521,10 +7219,11 @@
       <c r="AI283" s="6"/>
       <c r="AJ283" s="6"/>
     </row>
-    <row r="284" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C284" t="s">
+    <row r="284" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
         <v>183</v>
       </c>
+      <c r="C284"/>
       <c r="D284"/>
       <c r="AE284" s="6"/>
       <c r="AF284" s="6"/>
@@ -6533,10 +7232,11 @@
       <c r="AI284" s="6"/>
       <c r="AJ284" s="6"/>
     </row>
-    <row r="285" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C285" t="s">
+    <row r="285" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
         <v>193</v>
       </c>
+      <c r="C285"/>
       <c r="D285"/>
       <c r="AE285" s="6"/>
       <c r="AF285" s="6"/>
@@ -6545,10 +7245,11 @@
       <c r="AI285" s="6"/>
       <c r="AJ285" s="6"/>
     </row>
-    <row r="286" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C286" t="s">
+    <row r="286" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
         <v>202</v>
       </c>
+      <c r="C286"/>
       <c r="D286"/>
       <c r="AE286" s="6"/>
       <c r="AF286" s="6"/>
@@ -6557,10 +7258,11 @@
       <c r="AI286" s="6"/>
       <c r="AJ286" s="6"/>
     </row>
-    <row r="287" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C287" t="s">
+    <row r="287" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
         <v>211</v>
       </c>
+      <c r="C287"/>
       <c r="D287"/>
       <c r="AE287" s="6"/>
       <c r="AF287" s="6"/>
@@ -6569,10 +7271,11 @@
       <c r="AI287" s="6"/>
       <c r="AJ287" s="6"/>
     </row>
-    <row r="288" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C288" t="s">
+    <row r="288" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
         <v>61</v>
       </c>
+      <c r="C288"/>
       <c r="D288"/>
       <c r="AE288" s="6"/>
       <c r="AF288" s="6"/>
@@ -6581,10 +7284,11 @@
       <c r="AI288" s="6"/>
       <c r="AJ288" s="6"/>
     </row>
-    <row r="289" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C289" t="s">
+    <row r="289" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
         <v>74</v>
       </c>
+      <c r="C289"/>
       <c r="D289"/>
       <c r="AE289" s="6"/>
       <c r="AF289" s="6"/>
@@ -6593,10 +7297,11 @@
       <c r="AI289" s="6"/>
       <c r="AJ289" s="6"/>
     </row>
-    <row r="290" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C290" t="s">
+    <row r="290" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
         <v>90</v>
       </c>
+      <c r="C290"/>
       <c r="D290"/>
       <c r="AE290" s="6"/>
       <c r="AF290" s="6"/>
@@ -6605,10 +7310,11 @@
       <c r="AI290" s="6"/>
       <c r="AJ290" s="6"/>
     </row>
-    <row r="291" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C291" t="s">
+    <row r="291" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
         <v>109</v>
       </c>
+      <c r="C291"/>
       <c r="D291"/>
       <c r="AE291" s="6"/>
       <c r="AF291" s="6"/>
@@ -6617,10 +7323,11 @@
       <c r="AI291" s="6"/>
       <c r="AJ291" s="6"/>
     </row>
-    <row r="292" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C292" t="s">
+    <row r="292" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
         <v>125</v>
       </c>
+      <c r="C292"/>
       <c r="D292"/>
       <c r="AE292" s="6"/>
       <c r="AF292" s="6"/>
@@ -6629,10 +7336,11 @@
       <c r="AI292" s="6"/>
       <c r="AJ292" s="6"/>
     </row>
-    <row r="293" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C293" t="s">
+    <row r="293" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
         <v>135</v>
       </c>
+      <c r="C293"/>
       <c r="D293"/>
       <c r="AE293" s="6"/>
       <c r="AF293" s="6"/>
@@ -6641,10 +7349,11 @@
       <c r="AI293" s="6"/>
       <c r="AJ293" s="6"/>
     </row>
-    <row r="294" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C294" t="s">
+    <row r="294" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
         <v>147</v>
       </c>
+      <c r="C294"/>
       <c r="D294"/>
       <c r="AE294" s="6"/>
       <c r="AF294" s="6"/>
@@ -6653,10 +7362,11 @@
       <c r="AI294" s="6"/>
       <c r="AJ294" s="6"/>
     </row>
-    <row r="295" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C295" t="s">
+    <row r="295" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
         <v>161</v>
       </c>
+      <c r="C295"/>
       <c r="D295"/>
       <c r="AE295" s="6"/>
       <c r="AF295" s="6"/>
@@ -6665,10 +7375,11 @@
       <c r="AI295" s="6"/>
       <c r="AJ295" s="6"/>
     </row>
-    <row r="296" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C296" t="s">
+    <row r="296" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
         <v>174</v>
       </c>
+      <c r="C296"/>
       <c r="D296"/>
       <c r="AE296" s="6"/>
       <c r="AF296" s="6"/>
@@ -6677,10 +7388,11 @@
       <c r="AI296" s="6"/>
       <c r="AJ296" s="6"/>
     </row>
-    <row r="297" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C297" t="s">
+    <row r="297" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
         <v>184</v>
       </c>
+      <c r="C297"/>
       <c r="D297"/>
       <c r="AE297" s="6"/>
       <c r="AF297" s="6"/>
@@ -6689,10 +7401,11 @@
       <c r="AI297" s="6"/>
       <c r="AJ297" s="6"/>
     </row>
-    <row r="298" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C298" t="s">
+    <row r="298" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
         <v>194</v>
       </c>
+      <c r="C298"/>
       <c r="D298"/>
       <c r="AE298" s="6"/>
       <c r="AF298" s="6"/>
@@ -6701,16 +7414,18 @@
       <c r="AI298" s="6"/>
       <c r="AJ298" s="6"/>
     </row>
-    <row r="299" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C299" t="s">
+    <row r="299" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
         <v>203</v>
       </c>
+      <c r="C299"/>
       <c r="D299"/>
     </row>
-    <row r="300" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C300" t="s">
+    <row r="300" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
         <v>62</v>
       </c>
+      <c r="C300"/>
       <c r="D300"/>
       <c r="AE300" s="5"/>
       <c r="AF300" s="5"/>
@@ -6719,10 +7434,11 @@
       <c r="AI300" s="5"/>
       <c r="AJ300" s="5"/>
     </row>
-    <row r="301" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C301" t="s">
+    <row r="301" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
         <v>75</v>
       </c>
+      <c r="C301"/>
       <c r="D301"/>
       <c r="AE301" s="5"/>
       <c r="AF301" s="5"/>
@@ -6731,10 +7447,11 @@
       <c r="AI301" s="5"/>
       <c r="AJ301" s="5"/>
     </row>
-    <row r="302" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C302" t="s">
+    <row r="302" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
         <v>91</v>
       </c>
+      <c r="C302"/>
       <c r="D302"/>
       <c r="AE302" s="5"/>
       <c r="AF302" s="5"/>
@@ -6743,10 +7460,11 @@
       <c r="AI302" s="5"/>
       <c r="AJ302" s="5"/>
     </row>
-    <row r="303" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C303" t="s">
+    <row r="303" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
         <v>110</v>
       </c>
+      <c r="C303"/>
       <c r="D303"/>
       <c r="AE303" s="5"/>
       <c r="AF303" s="5"/>
@@ -6755,10 +7473,11 @@
       <c r="AI303" s="5"/>
       <c r="AJ303" s="5"/>
     </row>
-    <row r="304" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C304" t="s">
+    <row r="304" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
         <v>126</v>
       </c>
+      <c r="C304"/>
       <c r="D304"/>
       <c r="AE304" s="5"/>
       <c r="AF304" s="5"/>
@@ -6767,10 +7486,11 @@
       <c r="AI304" s="5"/>
       <c r="AJ304" s="5"/>
     </row>
-    <row r="305" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C305" t="s">
+    <row r="305" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
         <v>136</v>
       </c>
+      <c r="C305"/>
       <c r="D305"/>
       <c r="AE305" s="5"/>
       <c r="AF305" s="5"/>
@@ -6779,10 +7499,11 @@
       <c r="AI305" s="5"/>
       <c r="AJ305" s="5"/>
     </row>
-    <row r="306" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C306" t="s">
+    <row r="306" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
         <v>148</v>
       </c>
+      <c r="C306"/>
       <c r="D306"/>
       <c r="AE306" s="5"/>
       <c r="AF306" s="5"/>
@@ -6791,10 +7512,11 @@
       <c r="AI306" s="5"/>
       <c r="AJ306" s="5"/>
     </row>
-    <row r="307" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C307" t="s">
+    <row r="307" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
         <v>111</v>
       </c>
+      <c r="C307"/>
       <c r="D307"/>
       <c r="AE307" s="6"/>
       <c r="AF307" s="6"/>
@@ -6803,10 +7525,11 @@
       <c r="AI307" s="6"/>
       <c r="AJ307" s="6"/>
     </row>
-    <row r="308" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C308" t="s">
+    <row r="308" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
         <v>127</v>
       </c>
+      <c r="C308"/>
       <c r="D308"/>
       <c r="AE308" s="6"/>
       <c r="AF308" s="6"/>
@@ -6815,10 +7538,11 @@
       <c r="AI308" s="6"/>
       <c r="AJ308" s="6"/>
     </row>
-    <row r="309" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C309" t="s">
+    <row r="309" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
         <v>137</v>
       </c>
+      <c r="C309"/>
       <c r="D309"/>
       <c r="AE309" s="6"/>
       <c r="AF309" s="6"/>
@@ -6827,10 +7551,11 @@
       <c r="AI309" s="6"/>
       <c r="AJ309" s="6"/>
     </row>
-    <row r="310" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C310" t="s">
+    <row r="310" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
         <v>63</v>
       </c>
+      <c r="C310"/>
       <c r="D310"/>
       <c r="AE310" s="6"/>
       <c r="AF310" s="6"/>
@@ -6839,10 +7564,11 @@
       <c r="AI310" s="6"/>
       <c r="AJ310" s="6"/>
     </row>
-    <row r="311" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C311" t="s">
+    <row r="311" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
         <v>76</v>
       </c>
+      <c r="C311"/>
       <c r="D311"/>
       <c r="AE311" s="6"/>
       <c r="AF311" s="6"/>
@@ -6851,10 +7577,11 @@
       <c r="AI311" s="6"/>
       <c r="AJ311" s="6"/>
     </row>
-    <row r="312" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C312" t="s">
+    <row r="312" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
         <v>219</v>
       </c>
+      <c r="C312"/>
       <c r="D312"/>
       <c r="AE312" s="6"/>
       <c r="AF312" s="6"/>
@@ -6863,10 +7590,11 @@
       <c r="AI312" s="6"/>
       <c r="AJ312" s="6"/>
     </row>
-    <row r="313" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C313" t="s">
+    <row r="313" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
         <v>212</v>
       </c>
+      <c r="C313"/>
       <c r="D313"/>
       <c r="AE313" s="6"/>
       <c r="AF313" s="6"/>
@@ -6875,10 +7603,11 @@
       <c r="AI313" s="6"/>
       <c r="AJ313" s="6"/>
     </row>
-    <row r="314" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C314" t="s">
+    <row r="314" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
         <v>162</v>
       </c>
+      <c r="C314"/>
       <c r="D314"/>
       <c r="AE314" s="6"/>
       <c r="AF314" s="6"/>
@@ -6887,10 +7616,11 @@
       <c r="AI314" s="6"/>
       <c r="AJ314" s="6"/>
     </row>
-    <row r="315" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C315" t="s">
+    <row r="315" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
         <v>92</v>
       </c>
+      <c r="C315"/>
       <c r="D315"/>
       <c r="AE315" s="6"/>
       <c r="AF315" s="6"/>
@@ -6899,10 +7629,11 @@
       <c r="AI315" s="6"/>
       <c r="AJ315" s="6"/>
     </row>
-    <row r="316" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C316" t="s">
+    <row r="316" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
         <v>442</v>
       </c>
+      <c r="C316"/>
       <c r="D316"/>
       <c r="AE316" s="6"/>
       <c r="AF316" s="6"/>
@@ -6911,10 +7642,11 @@
       <c r="AI316" s="6"/>
       <c r="AJ316" s="6"/>
     </row>
-    <row r="317" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C317" t="s">
+    <row r="317" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
         <v>443</v>
       </c>
+      <c r="C317"/>
       <c r="D317"/>
       <c r="AE317" s="6"/>
       <c r="AF317" s="6"/>
@@ -6923,10 +7655,11 @@
       <c r="AI317" s="6"/>
       <c r="AJ317" s="6"/>
     </row>
-    <row r="318" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C318" t="s">
+    <row r="318" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
         <v>444</v>
       </c>
+      <c r="C318"/>
       <c r="D318"/>
       <c r="AE318" s="6"/>
       <c r="AF318" s="6"/>
@@ -6935,10 +7668,11 @@
       <c r="AI318" s="6"/>
       <c r="AJ318" s="6"/>
     </row>
-    <row r="319" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C319" t="s">
+    <row r="319" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
         <v>445</v>
       </c>
+      <c r="C319"/>
       <c r="D319"/>
       <c r="AE319" s="6"/>
       <c r="AF319" s="6"/>
@@ -6947,10 +7681,11 @@
       <c r="AI319" s="6"/>
       <c r="AJ319" s="6"/>
     </row>
-    <row r="320" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C320" t="s">
+    <row r="320" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
         <v>446</v>
       </c>
+      <c r="C320"/>
       <c r="D320"/>
       <c r="AE320" s="6"/>
       <c r="AF320" s="6"/>
@@ -6959,10 +7694,11 @@
       <c r="AI320" s="6"/>
       <c r="AJ320" s="6"/>
     </row>
-    <row r="321" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C321" t="s">
+    <row r="321" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
         <v>447</v>
       </c>
+      <c r="C321"/>
       <c r="D321"/>
       <c r="AE321" s="6"/>
       <c r="AF321" s="6"/>
@@ -6971,10 +7707,11 @@
       <c r="AI321" s="6"/>
       <c r="AJ321" s="6"/>
     </row>
-    <row r="322" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C322" t="s">
+    <row r="322" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
         <v>448</v>
       </c>
+      <c r="C322"/>
       <c r="D322"/>
       <c r="AE322" s="6"/>
       <c r="AF322" s="6"/>
@@ -6983,10 +7720,11 @@
       <c r="AI322" s="6"/>
       <c r="AJ322" s="6"/>
     </row>
-    <row r="323" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C323" t="s">
+    <row r="323" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
         <v>226</v>
       </c>
+      <c r="C323"/>
       <c r="D323"/>
       <c r="AE323" s="6"/>
       <c r="AF323" s="6"/>
@@ -6995,10 +7733,11 @@
       <c r="AI323" s="6"/>
       <c r="AJ323" s="6"/>
     </row>
-    <row r="324" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C324" t="s">
+    <row r="324" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
         <v>234</v>
       </c>
+      <c r="C324"/>
       <c r="D324"/>
       <c r="AE324" s="6"/>
       <c r="AF324" s="6"/>
@@ -7007,10 +7746,11 @@
       <c r="AI324" s="6"/>
       <c r="AJ324" s="6"/>
     </row>
-    <row r="325" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C325" t="s">
+    <row r="325" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
         <v>242</v>
       </c>
+      <c r="C325"/>
       <c r="D325"/>
       <c r="AE325" s="6"/>
       <c r="AF325" s="6"/>
@@ -7019,10 +7759,11 @@
       <c r="AI325" s="6"/>
       <c r="AJ325" s="6"/>
     </row>
-    <row r="326" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C326" t="s">
+    <row r="326" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
         <v>251</v>
       </c>
+      <c r="C326"/>
       <c r="D326"/>
       <c r="AE326" s="6"/>
       <c r="AF326" s="6"/>
@@ -7031,10 +7772,11 @@
       <c r="AI326" s="6"/>
       <c r="AJ326" s="6"/>
     </row>
-    <row r="327" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C327" t="s">
+    <row r="327" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
         <v>262</v>
       </c>
+      <c r="C327"/>
       <c r="D327"/>
       <c r="AE327" s="6"/>
       <c r="AF327" s="6"/>
@@ -7043,10 +7785,11 @@
       <c r="AI327" s="6"/>
       <c r="AJ327" s="6"/>
     </row>
-    <row r="328" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C328" t="s">
+    <row r="328" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
         <v>273</v>
       </c>
+      <c r="C328"/>
       <c r="D328"/>
       <c r="AE328" s="6"/>
       <c r="AF328" s="6"/>
@@ -7055,10 +7798,11 @@
       <c r="AI328" s="6"/>
       <c r="AJ328" s="6"/>
     </row>
-    <row r="329" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C329" t="s">
+    <row r="329" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
         <v>285</v>
       </c>
+      <c r="C329"/>
       <c r="D329"/>
       <c r="AE329" s="6"/>
       <c r="AF329" s="6"/>
@@ -7067,10 +7811,11 @@
       <c r="AI329" s="6"/>
       <c r="AJ329" s="6"/>
     </row>
-    <row r="330" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C330" t="s">
+    <row r="330" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
         <v>291</v>
       </c>
+      <c r="C330"/>
       <c r="D330"/>
       <c r="AE330" s="6"/>
       <c r="AF330" s="6"/>
@@ -7079,10 +7824,11 @@
       <c r="AI330" s="6"/>
       <c r="AJ330" s="6"/>
     </row>
-    <row r="331" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C331" t="s">
+    <row r="331" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
         <v>299</v>
       </c>
+      <c r="C331"/>
       <c r="D331"/>
       <c r="AE331" s="6"/>
       <c r="AF331" s="6"/>
@@ -7091,10 +7837,11 @@
       <c r="AI331" s="6"/>
       <c r="AJ331" s="6"/>
     </row>
-    <row r="332" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C332" t="s">
+    <row r="332" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
         <v>307</v>
       </c>
+      <c r="C332"/>
       <c r="D332"/>
       <c r="AE332" s="6"/>
       <c r="AF332" s="6"/>
@@ -7103,10 +7850,11 @@
       <c r="AI332" s="6"/>
       <c r="AJ332" s="6"/>
     </row>
-    <row r="333" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C333" t="s">
+    <row r="333" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
         <v>316</v>
       </c>
+      <c r="C333"/>
       <c r="D333"/>
       <c r="AE333" s="6"/>
       <c r="AF333" s="6"/>
@@ -7115,10 +7863,11 @@
       <c r="AI333" s="6"/>
       <c r="AJ333" s="6"/>
     </row>
-    <row r="334" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C334" t="s">
+    <row r="334" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
         <v>271</v>
       </c>
+      <c r="C334"/>
       <c r="D334"/>
       <c r="AE334" s="6"/>
       <c r="AF334" s="6"/>
@@ -7127,10 +7876,11 @@
       <c r="AI334" s="6"/>
       <c r="AJ334" s="6"/>
     </row>
-    <row r="335" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C335" t="s">
+    <row r="335" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
         <v>328</v>
       </c>
+      <c r="C335"/>
       <c r="D335"/>
       <c r="AE335" s="6"/>
       <c r="AF335" s="6"/>
@@ -7139,10 +7889,11 @@
       <c r="AI335" s="6"/>
       <c r="AJ335" s="6"/>
     </row>
-    <row r="336" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C336" t="s">
+    <row r="336" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
         <v>333</v>
       </c>
+      <c r="C336"/>
       <c r="D336"/>
       <c r="AE336" s="6"/>
       <c r="AF336" s="6"/>
@@ -7151,10 +7902,11 @@
       <c r="AI336" s="6"/>
       <c r="AJ336" s="6"/>
     </row>
-    <row r="337" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C337" t="s">
-        <v>546</v>
-      </c>
+    <row r="337" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
+        <v>528</v>
+      </c>
+      <c r="C337"/>
       <c r="D337"/>
       <c r="AE337" s="6"/>
       <c r="AF337" s="6"/>
@@ -7163,10 +7915,11 @@
       <c r="AI337" s="6"/>
       <c r="AJ337" s="6"/>
     </row>
-    <row r="338" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C338" t="s">
+    <row r="338" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
         <v>157</v>
       </c>
+      <c r="C338"/>
       <c r="D338"/>
       <c r="AE338" s="6"/>
       <c r="AF338" s="6"/>
@@ -7175,10 +7928,11 @@
       <c r="AI338" s="6"/>
       <c r="AJ338" s="6"/>
     </row>
-    <row r="339" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C339" t="s">
-        <v>547</v>
-      </c>
+    <row r="339" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
+        <v>529</v>
+      </c>
+      <c r="C339"/>
       <c r="D339"/>
       <c r="AE339" s="6"/>
       <c r="AF339" s="6"/>
@@ -7187,10 +7941,11 @@
       <c r="AI339" s="6"/>
       <c r="AJ339" s="6"/>
     </row>
-    <row r="340" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C340" t="s">
-        <v>548</v>
-      </c>
+    <row r="340" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
+        <v>530</v>
+      </c>
+      <c r="C340"/>
       <c r="D340"/>
       <c r="AE340" s="6"/>
       <c r="AF340" s="6"/>
@@ -7199,10 +7954,11 @@
       <c r="AI340" s="6"/>
       <c r="AJ340" s="6"/>
     </row>
-    <row r="341" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C341" t="s">
+    <row r="341" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
         <v>220</v>
       </c>
+      <c r="C341"/>
       <c r="D341"/>
       <c r="AE341" s="6"/>
       <c r="AF341" s="6"/>
@@ -7211,10 +7967,11 @@
       <c r="AI341" s="6"/>
       <c r="AJ341" s="6"/>
     </row>
-    <row r="342" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C342" t="s">
+    <row r="342" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
         <v>227</v>
       </c>
+      <c r="C342"/>
       <c r="D342"/>
       <c r="AE342" s="6"/>
       <c r="AF342" s="6"/>
@@ -7223,10 +7980,11 @@
       <c r="AI342" s="6"/>
       <c r="AJ342" s="6"/>
     </row>
-    <row r="343" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C343" t="s">
+    <row r="343" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B343" t="s">
         <v>235</v>
       </c>
+      <c r="C343"/>
       <c r="D343"/>
       <c r="AE343" s="6"/>
       <c r="AF343" s="6"/>
@@ -7235,10 +7993,11 @@
       <c r="AI343" s="6"/>
       <c r="AJ343" s="6"/>
     </row>
-    <row r="344" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C344" t="s">
+    <row r="344" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
         <v>243</v>
       </c>
+      <c r="C344"/>
       <c r="D344"/>
       <c r="AE344" s="6"/>
       <c r="AF344" s="6"/>
@@ -7247,10 +8006,11 @@
       <c r="AI344" s="6"/>
       <c r="AJ344" s="6"/>
     </row>
-    <row r="345" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C345" t="s">
+    <row r="345" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
         <v>252</v>
       </c>
+      <c r="C345"/>
       <c r="D345"/>
       <c r="AE345" s="6"/>
       <c r="AF345" s="6"/>
@@ -7259,10 +8019,11 @@
       <c r="AI345" s="6"/>
       <c r="AJ345" s="6"/>
     </row>
-    <row r="346" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C346" t="s">
+    <row r="346" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
         <v>263</v>
       </c>
+      <c r="C346"/>
       <c r="D346"/>
       <c r="AE346" s="6"/>
       <c r="AF346" s="6"/>
@@ -7271,10 +8032,11 @@
       <c r="AI346" s="6"/>
       <c r="AJ346" s="6"/>
     </row>
-    <row r="347" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C347" t="s">
+    <row r="347" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
         <v>274</v>
       </c>
+      <c r="C347"/>
       <c r="D347"/>
       <c r="AE347" s="6"/>
       <c r="AF347" s="6"/>
@@ -7283,10 +8045,11 @@
       <c r="AI347" s="6"/>
       <c r="AJ347" s="6"/>
     </row>
-    <row r="348" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C348" t="s">
+    <row r="348" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
         <v>286</v>
       </c>
+      <c r="C348"/>
       <c r="D348"/>
       <c r="AE348" s="6"/>
       <c r="AF348" s="6"/>
@@ -7295,10 +8058,11 @@
       <c r="AI348" s="6"/>
       <c r="AJ348" s="6"/>
     </row>
-    <row r="349" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C349" t="s">
+    <row r="349" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
         <v>292</v>
       </c>
+      <c r="C349"/>
       <c r="D349"/>
       <c r="AE349" s="6"/>
       <c r="AF349" s="6"/>
@@ -7307,10 +8071,11 @@
       <c r="AI349" s="6"/>
       <c r="AJ349" s="6"/>
     </row>
-    <row r="350" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C350" t="s">
+    <row r="350" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
         <v>300</v>
       </c>
+      <c r="C350"/>
       <c r="D350"/>
       <c r="AE350" s="6"/>
       <c r="AF350" s="6"/>
@@ -7319,10 +8084,11 @@
       <c r="AI350" s="6"/>
       <c r="AJ350" s="6"/>
     </row>
-    <row r="351" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C351" t="s">
+    <row r="351" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B351" t="s">
         <v>308</v>
       </c>
+      <c r="C351"/>
       <c r="D351"/>
       <c r="AE351" s="6"/>
       <c r="AF351" s="6"/>
@@ -7331,16 +8097,18 @@
       <c r="AI351" s="6"/>
       <c r="AJ351" s="6"/>
     </row>
-    <row r="352" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C352" t="s">
+    <row r="352" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
         <v>317</v>
       </c>
+      <c r="C352"/>
       <c r="D352"/>
     </row>
-    <row r="353" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C353" t="s">
+    <row r="353" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
         <v>284</v>
       </c>
+      <c r="C353"/>
       <c r="D353"/>
       <c r="AE353" s="5"/>
       <c r="AF353" s="5"/>
@@ -7349,10 +8117,11 @@
       <c r="AI353" s="5"/>
       <c r="AJ353" s="5"/>
     </row>
-    <row r="354" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C354" t="s">
+    <row r="354" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
         <v>175</v>
       </c>
+      <c r="C354"/>
       <c r="D354"/>
       <c r="AE354" s="5"/>
       <c r="AF354" s="5"/>
@@ -7361,10 +8130,11 @@
       <c r="AI354" s="5"/>
       <c r="AJ354" s="5"/>
     </row>
-    <row r="355" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C355" t="s">
+    <row r="355" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B355" t="s">
         <v>185</v>
       </c>
+      <c r="C355"/>
       <c r="D355"/>
       <c r="AE355"/>
       <c r="AF355"/>
@@ -7373,10 +8143,11 @@
       <c r="AI355"/>
       <c r="AJ355"/>
     </row>
-    <row r="356" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C356" t="s">
+    <row r="356" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
         <v>195</v>
       </c>
+      <c r="C356"/>
       <c r="D356"/>
       <c r="AE356"/>
       <c r="AF356"/>
@@ -7385,10 +8156,11 @@
       <c r="AI356"/>
       <c r="AJ356"/>
     </row>
-    <row r="357" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C357" t="s">
+    <row r="357" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
         <v>204</v>
       </c>
+      <c r="C357"/>
       <c r="D357"/>
       <c r="AE357"/>
       <c r="AF357"/>
@@ -7397,10 +8169,11 @@
       <c r="AI357"/>
       <c r="AJ357"/>
     </row>
-    <row r="358" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C358" t="s">
+    <row r="358" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
         <v>213</v>
       </c>
+      <c r="C358"/>
       <c r="D358"/>
       <c r="AE358"/>
       <c r="AF358"/>
@@ -7409,10 +8182,11 @@
       <c r="AI358"/>
       <c r="AJ358"/>
     </row>
-    <row r="359" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C359" t="s">
+    <row r="359" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
         <v>221</v>
       </c>
+      <c r="C359"/>
       <c r="D359"/>
       <c r="AE359"/>
       <c r="AF359"/>
@@ -7421,10 +8195,11 @@
       <c r="AI359"/>
       <c r="AJ359"/>
     </row>
-    <row r="360" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C360" t="s">
+    <row r="360" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B360" t="s">
         <v>449</v>
       </c>
+      <c r="C360"/>
       <c r="D360"/>
       <c r="AE360"/>
       <c r="AF360"/>
@@ -7433,10 +8208,11 @@
       <c r="AI360"/>
       <c r="AJ360"/>
     </row>
-    <row r="361" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C361" t="s">
+    <row r="361" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
         <v>327</v>
       </c>
+      <c r="C361"/>
       <c r="D361"/>
       <c r="AE361"/>
       <c r="AF361"/>
@@ -7445,10 +8221,11 @@
       <c r="AI361"/>
       <c r="AJ361"/>
     </row>
-    <row r="362" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C362" t="s">
+    <row r="362" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
         <v>332</v>
       </c>
+      <c r="C362"/>
       <c r="D362"/>
       <c r="AE362"/>
       <c r="AF362"/>
@@ -7457,10 +8234,11 @@
       <c r="AI362"/>
       <c r="AJ362"/>
     </row>
-    <row r="363" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C363" t="s">
+    <row r="363" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
         <v>287</v>
       </c>
+      <c r="C363"/>
       <c r="D363"/>
       <c r="AE363"/>
       <c r="AF363"/>
@@ -7469,10 +8247,11 @@
       <c r="AI363"/>
       <c r="AJ363"/>
     </row>
-    <row r="364" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C364" t="s">
+    <row r="364" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B364" t="s">
         <v>287</v>
       </c>
+      <c r="C364"/>
       <c r="D364"/>
       <c r="AE364"/>
       <c r="AF364"/>
@@ -7481,10 +8260,11 @@
       <c r="AI364"/>
       <c r="AJ364"/>
     </row>
-    <row r="365" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C365" t="s">
+    <row r="365" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
         <v>345</v>
       </c>
+      <c r="C365"/>
       <c r="D365"/>
       <c r="AE365"/>
       <c r="AF365"/>
@@ -7493,10 +8273,11 @@
       <c r="AI365"/>
       <c r="AJ365"/>
     </row>
-    <row r="366" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C366" t="s">
+    <row r="366" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
         <v>455</v>
       </c>
+      <c r="C366"/>
       <c r="D366"/>
       <c r="AE366"/>
       <c r="AF366"/>
@@ -7505,10 +8286,11 @@
       <c r="AI366"/>
       <c r="AJ366"/>
     </row>
-    <row r="367" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C367" t="s">
+    <row r="367" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
         <v>457</v>
       </c>
+      <c r="C367"/>
       <c r="D367"/>
       <c r="AE367"/>
       <c r="AF367"/>
@@ -7517,10 +8299,11 @@
       <c r="AI367"/>
       <c r="AJ367"/>
     </row>
-    <row r="368" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C368" t="s">
+    <row r="368" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B368" t="s">
         <v>353</v>
       </c>
+      <c r="C368"/>
       <c r="D368"/>
       <c r="AE368"/>
       <c r="AF368"/>
@@ -7529,10 +8312,11 @@
       <c r="AI368"/>
       <c r="AJ368"/>
     </row>
-    <row r="369" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C369" t="s">
+    <row r="369" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
         <v>458</v>
       </c>
+      <c r="C369"/>
       <c r="D369"/>
       <c r="AE369"/>
       <c r="AF369"/>
@@ -7541,10 +8325,11 @@
       <c r="AI369"/>
       <c r="AJ369"/>
     </row>
-    <row r="370" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C370" t="s">
+    <row r="370" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
         <v>460</v>
       </c>
+      <c r="C370"/>
       <c r="D370"/>
       <c r="AE370"/>
       <c r="AF370"/>
@@ -7553,10 +8338,11 @@
       <c r="AI370"/>
       <c r="AJ370"/>
     </row>
-    <row r="371" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C371" t="s">
+    <row r="371" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B371" t="s">
         <v>461</v>
       </c>
+      <c r="C371"/>
       <c r="D371"/>
       <c r="AE371"/>
       <c r="AF371"/>
@@ -7565,10 +8351,11 @@
       <c r="AI371"/>
       <c r="AJ371"/>
     </row>
-    <row r="372" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C372" t="s">
+    <row r="372" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B372" t="s">
         <v>463</v>
       </c>
+      <c r="C372"/>
       <c r="D372"/>
       <c r="AE372"/>
       <c r="AF372"/>
@@ -7577,10 +8364,11 @@
       <c r="AI372"/>
       <c r="AJ372"/>
     </row>
-    <row r="373" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C373" t="s">
+    <row r="373" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B373" t="s">
         <v>329</v>
       </c>
+      <c r="C373"/>
       <c r="D373"/>
       <c r="AE373"/>
       <c r="AF373"/>
@@ -7589,10 +8377,11 @@
       <c r="AI373"/>
       <c r="AJ373"/>
     </row>
-    <row r="374" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C374" t="s">
+    <row r="374" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B374" t="s">
         <v>465</v>
       </c>
+      <c r="C374"/>
       <c r="D374"/>
       <c r="AE374"/>
       <c r="AF374"/>
@@ -7601,10 +8390,11 @@
       <c r="AI374"/>
       <c r="AJ374"/>
     </row>
-    <row r="375" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C375" t="s">
+    <row r="375" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B375" t="s">
         <v>466</v>
       </c>
+      <c r="C375"/>
       <c r="D375"/>
       <c r="AE375"/>
       <c r="AF375"/>
@@ -7613,10 +8403,11 @@
       <c r="AI375"/>
       <c r="AJ375"/>
     </row>
-    <row r="376" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C376" t="s">
+    <row r="376" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
         <v>468</v>
       </c>
+      <c r="C376"/>
       <c r="D376"/>
       <c r="AE376"/>
       <c r="AF376"/>
@@ -7625,10 +8416,11 @@
       <c r="AI376"/>
       <c r="AJ376"/>
     </row>
-    <row r="377" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C377" t="s">
+    <row r="377" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B377" t="s">
         <v>3</v>
       </c>
+      <c r="C377"/>
       <c r="D377"/>
       <c r="AE377"/>
       <c r="AF377"/>
@@ -7637,10 +8429,11 @@
       <c r="AI377"/>
       <c r="AJ377"/>
     </row>
-    <row r="378" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C378" t="s">
+    <row r="378" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B378" t="s">
         <v>176</v>
       </c>
+      <c r="C378"/>
       <c r="D378"/>
       <c r="AE378"/>
       <c r="AF378"/>
@@ -7649,10 +8442,11 @@
       <c r="AI378"/>
       <c r="AJ378"/>
     </row>
-    <row r="379" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C379" t="s">
+    <row r="379" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B379" t="s">
         <v>471</v>
       </c>
+      <c r="C379"/>
       <c r="D379"/>
       <c r="AE379"/>
       <c r="AF379"/>
@@ -7661,10 +8455,11 @@
       <c r="AI379"/>
       <c r="AJ379"/>
     </row>
-    <row r="380" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C380" t="s">
+    <row r="380" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B380" t="s">
         <v>93</v>
       </c>
+      <c r="C380"/>
       <c r="D380"/>
       <c r="AE380"/>
       <c r="AF380"/>
@@ -7673,10 +8468,11 @@
       <c r="AI380"/>
       <c r="AJ380"/>
     </row>
-    <row r="381" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C381" t="s">
+    <row r="381" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B381" t="s">
         <v>64</v>
       </c>
+      <c r="C381"/>
       <c r="D381"/>
       <c r="AE381"/>
       <c r="AF381"/>
@@ -7685,10 +8481,11 @@
       <c r="AI381"/>
       <c r="AJ381"/>
     </row>
-    <row r="382" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C382" t="s">
+    <row r="382" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
         <v>473</v>
       </c>
+      <c r="C382"/>
       <c r="D382"/>
       <c r="AE382"/>
       <c r="AF382"/>
@@ -7697,10 +8494,11 @@
       <c r="AI382"/>
       <c r="AJ382"/>
     </row>
-    <row r="383" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C383" t="s">
+    <row r="383" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
         <v>396</v>
       </c>
+      <c r="C383"/>
       <c r="D383"/>
       <c r="AE383"/>
       <c r="AF383"/>
@@ -7709,10 +8507,11 @@
       <c r="AI383"/>
       <c r="AJ383"/>
     </row>
-    <row r="384" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C384" t="s">
+    <row r="384" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B384" t="s">
         <v>474</v>
       </c>
+      <c r="C384"/>
       <c r="D384"/>
       <c r="AE384"/>
       <c r="AF384"/>
@@ -7721,10 +8520,11 @@
       <c r="AI384"/>
       <c r="AJ384"/>
     </row>
-    <row r="385" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C385" t="s">
+    <row r="385" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B385" t="s">
         <v>112</v>
       </c>
+      <c r="C385"/>
       <c r="D385"/>
       <c r="AE385"/>
       <c r="AF385"/>
@@ -7733,10 +8533,11 @@
       <c r="AI385"/>
       <c r="AJ385"/>
     </row>
-    <row r="386" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C386" t="s">
+    <row r="386" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B386" t="s">
         <v>410</v>
       </c>
+      <c r="C386"/>
       <c r="D386"/>
       <c r="AE386"/>
       <c r="AF386"/>
@@ -7745,10 +8546,11 @@
       <c r="AI386"/>
       <c r="AJ386"/>
     </row>
-    <row r="387" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C387" t="s">
+    <row r="387" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
         <v>477</v>
       </c>
+      <c r="C387"/>
       <c r="D387"/>
       <c r="AE387"/>
       <c r="AF387"/>
@@ -7757,10 +8559,11 @@
       <c r="AI387"/>
       <c r="AJ387"/>
     </row>
-    <row r="388" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C388" t="s">
+    <row r="388" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B388" t="s">
         <v>479</v>
       </c>
+      <c r="C388"/>
       <c r="D388"/>
       <c r="AE388"/>
       <c r="AF388"/>
@@ -7769,10 +8572,11 @@
       <c r="AI388"/>
       <c r="AJ388"/>
     </row>
-    <row r="389" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C389" t="s">
+    <row r="389" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B389" t="s">
         <v>481</v>
       </c>
+      <c r="C389"/>
       <c r="D389"/>
       <c r="AE389"/>
       <c r="AF389"/>
@@ -7781,10 +8585,11 @@
       <c r="AI389"/>
       <c r="AJ389"/>
     </row>
-    <row r="390" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C390" t="s">
+    <row r="390" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
         <v>253</v>
       </c>
+      <c r="C390"/>
       <c r="D390"/>
       <c r="AE390"/>
       <c r="AF390"/>
@@ -7793,10 +8598,11 @@
       <c r="AI390"/>
       <c r="AJ390"/>
     </row>
-    <row r="391" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C391" t="s">
+    <row r="391" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
         <v>482</v>
       </c>
+      <c r="C391"/>
       <c r="D391"/>
       <c r="AE391"/>
       <c r="AF391"/>
@@ -7805,10 +8611,11 @@
       <c r="AI391"/>
       <c r="AJ391"/>
     </row>
-    <row r="392" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C392" t="s">
+    <row r="392" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
         <v>483</v>
       </c>
+      <c r="C392"/>
       <c r="D392"/>
       <c r="AE392"/>
       <c r="AF392"/>
@@ -7817,10 +8624,11 @@
       <c r="AI392"/>
       <c r="AJ392"/>
     </row>
-    <row r="393" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C393" t="s">
+    <row r="393" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
         <v>9</v>
       </c>
+      <c r="C393"/>
       <c r="D393"/>
       <c r="AE393"/>
       <c r="AF393"/>
@@ -7829,10 +8637,11 @@
       <c r="AI393"/>
       <c r="AJ393"/>
     </row>
-    <row r="394" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C394" t="s">
+    <row r="394" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B394" t="s">
         <v>186</v>
       </c>
+      <c r="C394"/>
       <c r="D394"/>
       <c r="AE394"/>
       <c r="AF394"/>
@@ -7841,10 +8650,11 @@
       <c r="AI394"/>
       <c r="AJ394"/>
     </row>
-    <row r="395" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C395" t="s">
+    <row r="395" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B395" t="s">
         <v>138</v>
       </c>
+      <c r="C395"/>
       <c r="D395"/>
       <c r="AE395"/>
       <c r="AF395"/>
@@ -7853,10 +8663,11 @@
       <c r="AI395"/>
       <c r="AJ395"/>
     </row>
-    <row r="396" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C396" t="s">
+    <row r="396" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B396" t="s">
         <v>149</v>
       </c>
+      <c r="C396"/>
       <c r="D396"/>
       <c r="AE396"/>
       <c r="AF396"/>
@@ -7865,10 +8676,11 @@
       <c r="AI396"/>
       <c r="AJ396"/>
     </row>
-    <row r="397" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C397" t="s">
+    <row r="397" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
         <v>484</v>
       </c>
+      <c r="C397"/>
       <c r="D397"/>
       <c r="AE397"/>
       <c r="AF397"/>
@@ -7877,10 +8689,11 @@
       <c r="AI397"/>
       <c r="AJ397"/>
     </row>
-    <row r="398" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C398" t="s">
+    <row r="398" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
         <v>30</v>
       </c>
+      <c r="C398"/>
       <c r="D398"/>
       <c r="AE398"/>
       <c r="AF398"/>
@@ -7889,10 +8702,11 @@
       <c r="AI398"/>
       <c r="AJ398"/>
     </row>
-    <row r="399" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C399" t="s">
+    <row r="399" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
         <v>485</v>
       </c>
+      <c r="C399"/>
       <c r="D399"/>
       <c r="AE399"/>
       <c r="AF399"/>
@@ -7901,10 +8715,11 @@
       <c r="AI399"/>
       <c r="AJ399"/>
     </row>
-    <row r="400" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C400" t="s">
+    <row r="400" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
         <v>486</v>
       </c>
+      <c r="C400"/>
       <c r="D400"/>
       <c r="AE400"/>
       <c r="AF400"/>
@@ -7913,10 +8728,11 @@
       <c r="AI400"/>
       <c r="AJ400"/>
     </row>
-    <row r="401" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C401" t="s">
+    <row r="401" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
         <v>487</v>
       </c>
+      <c r="C401"/>
       <c r="D401"/>
       <c r="AE401"/>
       <c r="AF401"/>
@@ -7925,10 +8741,11 @@
       <c r="AI401"/>
       <c r="AJ401"/>
     </row>
-    <row r="402" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C402" t="s">
+    <row r="402" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
         <v>488</v>
       </c>
+      <c r="C402"/>
       <c r="D402"/>
       <c r="AE402"/>
       <c r="AF402"/>
@@ -7937,10 +8754,11 @@
       <c r="AI402"/>
       <c r="AJ402"/>
     </row>
-    <row r="403" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C403" t="s">
+    <row r="403" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
         <v>489</v>
       </c>
+      <c r="C403"/>
       <c r="D403"/>
       <c r="AE403"/>
       <c r="AF403"/>
@@ -7949,10 +8767,11 @@
       <c r="AI403"/>
       <c r="AJ403"/>
     </row>
-    <row r="404" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C404" t="s">
+    <row r="404" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
         <v>490</v>
       </c>
+      <c r="C404"/>
       <c r="D404"/>
       <c r="AE404"/>
       <c r="AF404"/>
@@ -7961,10 +8780,11 @@
       <c r="AI404"/>
       <c r="AJ404"/>
     </row>
-    <row r="405" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C405" t="s">
+    <row r="405" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
         <v>491</v>
       </c>
+      <c r="C405"/>
       <c r="D405"/>
       <c r="AE405"/>
       <c r="AF405"/>
@@ -7973,10 +8793,11 @@
       <c r="AI405"/>
       <c r="AJ405"/>
     </row>
-    <row r="406" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C406" t="s">
+    <row r="406" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
         <v>492</v>
       </c>
+      <c r="C406"/>
       <c r="D406"/>
       <c r="AE406"/>
       <c r="AF406"/>
@@ -7985,10 +8806,11 @@
       <c r="AI406"/>
       <c r="AJ406"/>
     </row>
-    <row r="407" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C407" t="s">
+    <row r="407" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
         <v>493</v>
       </c>
+      <c r="C407"/>
       <c r="D407"/>
       <c r="AE407"/>
       <c r="AF407"/>
@@ -7997,10 +8819,11 @@
       <c r="AI407"/>
       <c r="AJ407"/>
     </row>
-    <row r="408" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C408" t="s">
+    <row r="408" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B408" t="s">
         <v>494</v>
       </c>
+      <c r="C408"/>
       <c r="D408"/>
       <c r="AE408"/>
       <c r="AF408"/>
@@ -8009,10 +8832,11 @@
       <c r="AI408"/>
       <c r="AJ408"/>
     </row>
-    <row r="409" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C409" t="s">
+    <row r="409" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
         <v>495</v>
       </c>
+      <c r="C409"/>
       <c r="D409"/>
       <c r="AE409"/>
       <c r="AF409"/>
@@ -8021,10 +8845,11 @@
       <c r="AI409"/>
       <c r="AJ409"/>
     </row>
-    <row r="410" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C410" t="s">
+    <row r="410" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B410" t="s">
         <v>264</v>
       </c>
+      <c r="C410"/>
       <c r="D410"/>
       <c r="AE410"/>
       <c r="AF410"/>
@@ -8033,10 +8858,11 @@
       <c r="AI410"/>
       <c r="AJ410"/>
     </row>
-    <row r="411" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C411" t="s">
+    <row r="411" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
         <v>496</v>
       </c>
+      <c r="C411"/>
       <c r="D411"/>
       <c r="AE411"/>
       <c r="AF411"/>
@@ -8045,10 +8871,11 @@
       <c r="AI411"/>
       <c r="AJ411"/>
     </row>
-    <row r="412" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C412" t="s">
+    <row r="412" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
         <v>497</v>
       </c>
+      <c r="C412"/>
       <c r="D412"/>
       <c r="AE412"/>
       <c r="AF412"/>
@@ -8057,10 +8884,11 @@
       <c r="AI412"/>
       <c r="AJ412"/>
     </row>
-    <row r="413" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C413" t="s">
+    <row r="413" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
         <v>498</v>
       </c>
+      <c r="C413"/>
       <c r="D413"/>
       <c r="AE413"/>
       <c r="AF413"/>
@@ -8069,10 +8897,11 @@
       <c r="AI413"/>
       <c r="AJ413"/>
     </row>
-    <row r="414" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C414" t="s">
+    <row r="414" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
         <v>94</v>
       </c>
+      <c r="C414"/>
       <c r="D414"/>
       <c r="AE414"/>
       <c r="AF414"/>
@@ -8081,10 +8910,11 @@
       <c r="AI414"/>
       <c r="AJ414"/>
     </row>
-    <row r="415" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C415" t="s">
+    <row r="415" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
         <v>114</v>
       </c>
+      <c r="C415"/>
       <c r="D415"/>
       <c r="AE415"/>
       <c r="AF415"/>
@@ -8093,10 +8923,11 @@
       <c r="AI415"/>
       <c r="AJ415"/>
     </row>
-    <row r="416" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C416" t="s">
+    <row r="416" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
         <v>4</v>
       </c>
+      <c r="C416"/>
       <c r="D416"/>
       <c r="AE416"/>
       <c r="AF416"/>
@@ -8105,10 +8936,11 @@
       <c r="AI416"/>
       <c r="AJ416"/>
     </row>
-    <row r="417" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C417" t="s">
+    <row r="417" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
         <v>10</v>
       </c>
+      <c r="C417"/>
       <c r="D417"/>
       <c r="AE417"/>
       <c r="AF417"/>
@@ -8117,10 +8949,11 @@
       <c r="AI417"/>
       <c r="AJ417"/>
     </row>
-    <row r="418" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C418" t="s">
+    <row r="418" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
         <v>151</v>
       </c>
+      <c r="C418"/>
       <c r="D418"/>
       <c r="AE418"/>
       <c r="AF418"/>
@@ -8129,10 +8962,11 @@
       <c r="AI418"/>
       <c r="AJ418"/>
     </row>
-    <row r="419" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C419" t="s">
+    <row r="419" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
         <v>164</v>
       </c>
+      <c r="C419"/>
       <c r="D419"/>
       <c r="AE419"/>
       <c r="AF419"/>
@@ -8141,10 +8975,11 @@
       <c r="AI419"/>
       <c r="AJ419"/>
     </row>
-    <row r="420" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C420" t="s">
+    <row r="420" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
         <v>178</v>
       </c>
+      <c r="C420"/>
       <c r="D420"/>
       <c r="AE420"/>
       <c r="AF420"/>
@@ -8153,10 +8988,11 @@
       <c r="AI420"/>
       <c r="AJ420"/>
     </row>
-    <row r="421" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C421" t="s">
+    <row r="421" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B421" t="s">
         <v>187</v>
       </c>
+      <c r="C421"/>
       <c r="D421"/>
       <c r="AE421"/>
       <c r="AF421"/>
@@ -8165,10 +9001,11 @@
       <c r="AI421"/>
       <c r="AJ421"/>
     </row>
-    <row r="422" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C422" t="s">
+    <row r="422" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B422" t="s">
         <v>196</v>
       </c>
+      <c r="C422"/>
       <c r="D422"/>
       <c r="AE422"/>
       <c r="AF422"/>
@@ -8177,10 +9014,11 @@
       <c r="AI422"/>
       <c r="AJ422"/>
     </row>
-    <row r="423" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C423" t="s">
+    <row r="423" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
         <v>205</v>
       </c>
+      <c r="C423"/>
       <c r="D423"/>
       <c r="AE423"/>
       <c r="AF423"/>
@@ -8189,28 +9027,32 @@
       <c r="AI423"/>
       <c r="AJ423"/>
     </row>
-    <row r="424" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C424" t="s">
+    <row r="424" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
         <v>214</v>
       </c>
+      <c r="C424"/>
       <c r="D424"/>
     </row>
-    <row r="425" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C425" t="s">
+    <row r="425" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
         <v>222</v>
       </c>
+      <c r="C425"/>
       <c r="D425"/>
     </row>
-    <row r="426" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C426" t="s">
+    <row r="426" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
         <v>228</v>
       </c>
+      <c r="C426"/>
       <c r="D426"/>
     </row>
-    <row r="427" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C427" t="s">
+    <row r="427" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
         <v>236</v>
       </c>
+      <c r="C427"/>
       <c r="D427"/>
       <c r="AE427" s="6"/>
       <c r="AF427" s="6"/>
@@ -8219,10 +9061,11 @@
       <c r="AI427" s="6"/>
       <c r="AJ427" s="6"/>
     </row>
-    <row r="428" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C428" t="s">
+    <row r="428" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
         <v>244</v>
       </c>
+      <c r="C428"/>
       <c r="D428"/>
       <c r="AE428" s="6"/>
       <c r="AF428" s="6"/>
@@ -8231,10 +9074,11 @@
       <c r="AI428" s="6"/>
       <c r="AJ428" s="6"/>
     </row>
-    <row r="429" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C429" t="s">
+    <row r="429" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
         <v>254</v>
       </c>
+      <c r="C429"/>
       <c r="D429"/>
       <c r="AE429" s="6"/>
       <c r="AF429" s="6"/>
@@ -8243,10 +9087,11 @@
       <c r="AI429" s="6"/>
       <c r="AJ429" s="6"/>
     </row>
-    <row r="430" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C430" t="s">
+    <row r="430" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
         <v>265</v>
       </c>
+      <c r="C430"/>
       <c r="D430"/>
       <c r="AE430" s="6"/>
       <c r="AF430" s="6"/>
@@ -8255,10 +9100,11 @@
       <c r="AI430" s="6"/>
       <c r="AJ430" s="6"/>
     </row>
-    <row r="431" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C431" t="s">
+    <row r="431" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
         <v>275</v>
       </c>
+      <c r="C431"/>
       <c r="D431"/>
       <c r="AE431" s="6"/>
       <c r="AF431" s="6"/>
@@ -8267,10 +9113,11 @@
       <c r="AI431" s="6"/>
       <c r="AJ431" s="6"/>
     </row>
-    <row r="432" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C432" t="s">
+    <row r="432" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
         <v>106</v>
       </c>
+      <c r="C432"/>
       <c r="D432"/>
       <c r="AE432" s="6"/>
       <c r="AF432" s="6"/>
@@ -8279,10 +9126,11 @@
       <c r="AI432" s="6"/>
       <c r="AJ432" s="6"/>
     </row>
-    <row r="433" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C433" t="s">
+    <row r="433" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
         <v>293</v>
       </c>
+      <c r="C433"/>
       <c r="D433"/>
       <c r="AE433" s="6"/>
       <c r="AF433" s="6"/>
@@ -8291,10 +9139,11 @@
       <c r="AI433" s="6"/>
       <c r="AJ433" s="6"/>
     </row>
-    <row r="434" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C434" t="s">
+    <row r="434" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
         <v>13</v>
       </c>
+      <c r="C434"/>
       <c r="D434"/>
       <c r="AE434" s="6"/>
       <c r="AF434" s="6"/>
@@ -8303,10 +9152,11 @@
       <c r="AI434" s="6"/>
       <c r="AJ434" s="6"/>
     </row>
-    <row r="435" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C435" t="s">
+    <row r="435" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
         <v>309</v>
       </c>
+      <c r="C435"/>
       <c r="D435"/>
       <c r="AE435" s="6"/>
       <c r="AF435" s="6"/>
@@ -8315,10 +9165,11 @@
       <c r="AI435" s="6"/>
       <c r="AJ435" s="6"/>
     </row>
-    <row r="436" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C436" t="s">
+    <row r="436" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
         <v>50</v>
       </c>
+      <c r="C436"/>
       <c r="D436"/>
       <c r="AE436" s="6"/>
       <c r="AF436" s="6"/>
@@ -8327,10 +9178,11 @@
       <c r="AI436" s="6"/>
       <c r="AJ436" s="6"/>
     </row>
-    <row r="437" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C437" t="s">
+    <row r="437" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
         <v>113</v>
       </c>
+      <c r="C437"/>
       <c r="D437"/>
       <c r="AE437" s="6"/>
       <c r="AF437" s="6"/>
@@ -8339,10 +9191,11 @@
       <c r="AI437" s="6"/>
       <c r="AJ437" s="6"/>
     </row>
-    <row r="438" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C438" t="s">
+    <row r="438" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
         <v>128</v>
       </c>
+      <c r="C438"/>
       <c r="D438"/>
       <c r="AE438" s="6"/>
       <c r="AF438" s="6"/>
@@ -8351,10 +9204,11 @@
       <c r="AI438" s="6"/>
       <c r="AJ438" s="6"/>
     </row>
-    <row r="439" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C439" t="s">
+    <row r="439" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
         <v>334</v>
       </c>
+      <c r="C439"/>
       <c r="D439"/>
       <c r="AE439" s="6"/>
       <c r="AF439" s="6"/>
@@ -8363,10 +9217,11 @@
       <c r="AI439" s="6"/>
       <c r="AJ439" s="6"/>
     </row>
-    <row r="440" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C440" t="s">
+    <row r="440" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
         <v>499</v>
       </c>
+      <c r="C440"/>
       <c r="D440"/>
       <c r="AE440" s="6"/>
       <c r="AF440" s="6"/>
@@ -8375,10 +9230,11 @@
       <c r="AI440" s="6"/>
       <c r="AJ440" s="6"/>
     </row>
-    <row r="441" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C441" t="s">
+    <row r="441" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
         <v>500</v>
       </c>
+      <c r="C441"/>
       <c r="D441"/>
       <c r="AE441" s="6"/>
       <c r="AF441" s="6"/>
@@ -8387,10 +9243,11 @@
       <c r="AI441" s="6"/>
       <c r="AJ441" s="6"/>
     </row>
-    <row r="442" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C442" t="s">
+    <row r="442" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
         <v>501</v>
       </c>
+      <c r="C442"/>
       <c r="D442"/>
       <c r="AE442" s="6"/>
       <c r="AF442" s="6"/>
@@ -8399,10 +9256,11 @@
       <c r="AI442" s="6"/>
       <c r="AJ442" s="6"/>
     </row>
-    <row r="443" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C443" t="s">
+    <row r="443" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
         <v>502</v>
       </c>
+      <c r="C443"/>
       <c r="D443"/>
       <c r="AE443" s="6"/>
       <c r="AF443" s="6"/>
@@ -8411,10 +9269,11 @@
       <c r="AI443" s="6"/>
       <c r="AJ443" s="6"/>
     </row>
-    <row r="444" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C444" t="s">
+    <row r="444" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
         <v>503</v>
       </c>
+      <c r="C444"/>
       <c r="D444"/>
       <c r="AE444" s="6"/>
       <c r="AF444" s="6"/>
@@ -8423,10 +9282,11 @@
       <c r="AI444" s="6"/>
       <c r="AJ444" s="6"/>
     </row>
-    <row r="445" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C445" t="s">
+    <row r="445" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
         <v>504</v>
       </c>
+      <c r="C445"/>
       <c r="D445"/>
       <c r="AE445" s="6"/>
       <c r="AF445" s="6"/>
@@ -8435,10 +9295,11 @@
       <c r="AI445" s="6"/>
       <c r="AJ445" s="6"/>
     </row>
-    <row r="446" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C446" t="s">
+    <row r="446" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
         <v>505</v>
       </c>
+      <c r="C446"/>
       <c r="D446"/>
       <c r="AE446" s="6"/>
       <c r="AF446" s="6"/>
@@ -8447,10 +9308,11 @@
       <c r="AI446" s="6"/>
       <c r="AJ446" s="6"/>
     </row>
-    <row r="447" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C447" t="s">
+    <row r="447" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
         <v>506</v>
       </c>
+      <c r="C447"/>
       <c r="D447"/>
       <c r="AE447" s="6"/>
       <c r="AF447" s="6"/>
@@ -8459,10 +9321,11 @@
       <c r="AI447" s="6"/>
       <c r="AJ447" s="6"/>
     </row>
-    <row r="448" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C448" t="s">
+    <row r="448" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
         <v>14</v>
       </c>
+      <c r="C448"/>
       <c r="D448"/>
       <c r="AE448" s="6"/>
       <c r="AF448" s="6"/>
@@ -8471,10 +9334,11 @@
       <c r="AI448" s="6"/>
       <c r="AJ448" s="6"/>
     </row>
-    <row r="449" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C449" t="s">
+    <row r="449" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
         <v>22</v>
       </c>
+      <c r="C449"/>
       <c r="D449"/>
       <c r="AE449" s="6"/>
       <c r="AF449" s="6"/>
@@ -8483,10 +9347,11 @@
       <c r="AI449" s="6"/>
       <c r="AJ449" s="6"/>
     </row>
-    <row r="450" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C450" t="s">
+    <row r="450" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
         <v>352</v>
       </c>
+      <c r="C450"/>
       <c r="D450"/>
       <c r="AE450" s="6"/>
       <c r="AF450" s="6"/>
@@ -8495,10 +9360,11 @@
       <c r="AI450" s="6"/>
       <c r="AJ450" s="6"/>
     </row>
-    <row r="451" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C451" t="s">
+    <row r="451" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
         <v>361</v>
       </c>
+      <c r="C451"/>
       <c r="D451"/>
       <c r="AE451" s="6"/>
       <c r="AF451" s="6"/>
@@ -8507,10 +9373,11 @@
       <c r="AI451" s="6"/>
       <c r="AJ451" s="6"/>
     </row>
-    <row r="452" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C452" t="s">
+    <row r="452" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
         <v>365</v>
       </c>
+      <c r="C452"/>
       <c r="D452"/>
       <c r="AE452" s="6"/>
       <c r="AF452" s="6"/>
@@ -8519,10 +9386,11 @@
       <c r="AI452" s="6"/>
       <c r="AJ452" s="6"/>
     </row>
-    <row r="453" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C453" t="s">
+    <row r="453" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
         <v>21</v>
       </c>
+      <c r="C453"/>
       <c r="D453"/>
       <c r="AE453" s="6"/>
       <c r="AF453" s="6"/>
@@ -8531,10 +9399,11 @@
       <c r="AI453" s="6"/>
       <c r="AJ453" s="6"/>
     </row>
-    <row r="454" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C454" t="s">
+    <row r="454" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
         <v>373</v>
       </c>
+      <c r="C454"/>
       <c r="D454"/>
       <c r="AE454" s="6"/>
       <c r="AF454" s="6"/>
@@ -8543,10 +9412,11 @@
       <c r="AI454" s="6"/>
       <c r="AJ454" s="6"/>
     </row>
-    <row r="455" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C455" t="s">
+    <row r="455" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
         <v>378</v>
       </c>
+      <c r="C455"/>
       <c r="D455"/>
       <c r="AE455" s="6"/>
       <c r="AF455" s="6"/>
@@ -8555,10 +9425,11 @@
       <c r="AI455" s="6"/>
       <c r="AJ455" s="6"/>
     </row>
-    <row r="456" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C456" t="s">
+    <row r="456" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
         <v>381</v>
       </c>
+      <c r="C456"/>
       <c r="D456"/>
       <c r="AE456" s="6"/>
       <c r="AF456" s="6"/>
@@ -8567,10 +9438,11 @@
       <c r="AI456" s="6"/>
       <c r="AJ456" s="6"/>
     </row>
-    <row r="457" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C457" t="s">
+    <row r="457" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
         <v>384</v>
       </c>
+      <c r="C457"/>
       <c r="D457"/>
       <c r="AE457" s="6"/>
       <c r="AF457" s="6"/>
@@ -8579,10 +9451,11 @@
       <c r="AI457" s="6"/>
       <c r="AJ457" s="6"/>
     </row>
-    <row r="458" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C458" t="s">
+    <row r="458" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
         <v>387</v>
       </c>
+      <c r="C458"/>
       <c r="D458"/>
       <c r="AE458" s="6"/>
       <c r="AF458" s="6"/>
@@ -8591,10 +9464,11 @@
       <c r="AI458" s="6"/>
       <c r="AJ458" s="6"/>
     </row>
-    <row r="459" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C459" t="s">
+    <row r="459" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
         <v>391</v>
       </c>
+      <c r="C459"/>
       <c r="D459"/>
       <c r="AE459" s="6"/>
       <c r="AF459" s="6"/>
@@ -8603,16 +9477,18 @@
       <c r="AI459" s="6"/>
       <c r="AJ459" s="6"/>
     </row>
-    <row r="460" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C460" t="s">
+    <row r="460" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
         <v>397</v>
       </c>
+      <c r="C460"/>
       <c r="D460"/>
     </row>
-    <row r="461" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C461" t="s">
+    <row r="461" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
         <v>400</v>
       </c>
+      <c r="C461"/>
       <c r="D461"/>
       <c r="AE461" s="5"/>
       <c r="AF461" s="5"/>
@@ -8621,10 +9497,11 @@
       <c r="AI461" s="5"/>
       <c r="AJ461" s="5"/>
     </row>
-    <row r="462" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C462" t="s">
+    <row r="462" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
         <v>177</v>
       </c>
+      <c r="C462"/>
       <c r="D462"/>
       <c r="AE462" s="5"/>
       <c r="AF462" s="5"/>
@@ -8633,16 +9510,18 @@
       <c r="AI462" s="5"/>
       <c r="AJ462" s="5"/>
     </row>
-    <row r="463" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C463" t="s">
+    <row r="463" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
         <v>150</v>
       </c>
+      <c r="C463"/>
       <c r="D463"/>
     </row>
-    <row r="464" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C464" t="s">
+    <row r="464" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
         <v>407</v>
       </c>
+      <c r="C464"/>
       <c r="D464"/>
       <c r="AE464" s="5"/>
       <c r="AF464" s="5"/>
@@ -8651,10 +9530,11 @@
       <c r="AI464" s="5"/>
       <c r="AJ464" s="5"/>
     </row>
-    <row r="465" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C465" t="s">
+    <row r="465" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
         <v>163</v>
       </c>
+      <c r="C465"/>
       <c r="D465"/>
       <c r="AE465" s="5"/>
       <c r="AF465" s="5"/>
@@ -8663,10 +9543,11 @@
       <c r="AI465" s="5"/>
       <c r="AJ465" s="5"/>
     </row>
-    <row r="466" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C466" t="s">
+    <row r="466" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
         <v>414</v>
       </c>
+      <c r="C466"/>
       <c r="D466"/>
       <c r="AE466" s="5"/>
       <c r="AF466" s="5"/>
@@ -8675,10 +9556,11 @@
       <c r="AI466" s="5"/>
       <c r="AJ466" s="5"/>
     </row>
-    <row r="467" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C467" t="s">
+    <row r="467" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
         <v>418</v>
       </c>
+      <c r="C467"/>
       <c r="D467"/>
       <c r="AE467" s="5"/>
       <c r="AF467" s="5"/>
@@ -8687,10 +9569,11 @@
       <c r="AI467" s="5"/>
       <c r="AJ467" s="5"/>
     </row>
-    <row r="468" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C468" t="s">
+    <row r="468" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
         <v>421</v>
       </c>
+      <c r="C468"/>
       <c r="D468"/>
       <c r="AE468" s="5"/>
       <c r="AF468" s="5"/>
@@ -8699,10 +9582,11 @@
       <c r="AI468" s="5"/>
       <c r="AJ468" s="5"/>
     </row>
-    <row r="469" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C469" t="s">
+    <row r="469" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
         <v>423</v>
       </c>
+      <c r="C469"/>
       <c r="D469"/>
       <c r="AE469" s="6"/>
       <c r="AF469" s="6"/>
@@ -8711,10 +9595,11 @@
       <c r="AI469" s="6"/>
       <c r="AJ469" s="6"/>
     </row>
-    <row r="470" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C470" t="s">
+    <row r="470" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
         <v>425</v>
       </c>
+      <c r="C470"/>
       <c r="D470"/>
       <c r="AE470" s="6"/>
       <c r="AF470" s="6"/>
@@ -8723,10 +9608,11 @@
       <c r="AI470" s="6"/>
       <c r="AJ470" s="6"/>
     </row>
-    <row r="471" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C471" t="s">
+    <row r="471" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B471" t="s">
         <v>427</v>
       </c>
+      <c r="C471"/>
       <c r="D471"/>
       <c r="AE471" s="6"/>
       <c r="AF471" s="6"/>
@@ -8735,9 +9621,9 @@
       <c r="AI471" s="6"/>
       <c r="AJ471" s="6"/>
     </row>
-    <row r="472" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C472" s="1" t="s">
-        <v>551</v>
+    <row r="472" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B472" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="D472"/>
       <c r="AE472" s="6"/>
@@ -8747,9 +9633,9 @@
       <c r="AI472" s="6"/>
       <c r="AJ472" s="6"/>
     </row>
-    <row r="473" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C473" s="1" t="s">
-        <v>555</v>
+    <row r="473" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B473" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="D473"/>
       <c r="AE473" s="6"/>
@@ -8759,8 +9645,8 @@
       <c r="AI473" s="6"/>
       <c r="AJ473" s="6"/>
     </row>
-    <row r="474" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C474" s="1" t="s">
+    <row r="474" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B474" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D474"/>
@@ -8771,8 +9657,8 @@
       <c r="AI474" s="6"/>
       <c r="AJ474" s="6"/>
     </row>
-    <row r="475" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C475" s="1" t="s">
+    <row r="475" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B475" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D475"/>
@@ -8783,8 +9669,8 @@
       <c r="AI475" s="6"/>
       <c r="AJ475" s="6"/>
     </row>
-    <row r="476" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C476" s="1" t="s">
+    <row r="476" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B476" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D476"/>
@@ -8795,8 +9681,8 @@
       <c r="AI476" s="6"/>
       <c r="AJ476" s="6"/>
     </row>
-    <row r="477" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C477" s="1" t="s">
+    <row r="477" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B477" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D477"/>
@@ -8807,8 +9693,8 @@
       <c r="AI477" s="6"/>
       <c r="AJ477" s="6"/>
     </row>
-    <row r="478" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C478" s="1" t="s">
+    <row r="478" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B478" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D478"/>
@@ -8819,8 +9705,8 @@
       <c r="AI478" s="6"/>
       <c r="AJ478" s="6"/>
     </row>
-    <row r="479" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C479" s="1" t="s">
+    <row r="479" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B479" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D479"/>
@@ -8831,8 +9717,8 @@
       <c r="AI479" s="6"/>
       <c r="AJ479" s="6"/>
     </row>
-    <row r="480" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C480" s="1" t="s">
+    <row r="480" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B480" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D480"/>
@@ -8843,8 +9729,8 @@
       <c r="AI480" s="6"/>
       <c r="AJ480" s="6"/>
     </row>
-    <row r="481" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C481" s="1" t="s">
+    <row r="481" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B481" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D481"/>
@@ -8855,8 +9741,8 @@
       <c r="AI481" s="6"/>
       <c r="AJ481" s="6"/>
     </row>
-    <row r="482" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C482" s="1" t="s">
+    <row r="482" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B482" s="1" t="s">
         <v>310</v>
       </c>
       <c r="D482"/>
@@ -8867,8 +9753,8 @@
       <c r="AI482" s="6"/>
       <c r="AJ482" s="6"/>
     </row>
-    <row r="483" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C483" s="1" t="s">
+    <row r="483" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B483" s="1" t="s">
         <v>318</v>
       </c>
       <c r="D483"/>
@@ -8879,8 +9765,8 @@
       <c r="AI483" s="6"/>
       <c r="AJ483" s="6"/>
     </row>
-    <row r="484" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C484" s="1" t="s">
+    <row r="484" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B484" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D484"/>
@@ -8891,8 +9777,8 @@
       <c r="AI484" s="6"/>
       <c r="AJ484" s="6"/>
     </row>
-    <row r="485" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C485" s="1" t="s">
+    <row r="485" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B485" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D485"/>
@@ -8903,8 +9789,8 @@
       <c r="AI485" s="6"/>
       <c r="AJ485" s="6"/>
     </row>
-    <row r="486" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C486" s="1" t="s">
+    <row r="486" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B486" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D486"/>
@@ -8915,8 +9801,8 @@
       <c r="AI486" s="6"/>
       <c r="AJ486" s="6"/>
     </row>
-    <row r="487" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C487" s="1" t="s">
+    <row r="487" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B487" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D487"/>
@@ -8927,8 +9813,8 @@
       <c r="AI487" s="6"/>
       <c r="AJ487" s="6"/>
     </row>
-    <row r="488" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C488" s="1" t="s">
+    <row r="488" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B488" s="1" t="s">
         <v>346</v>
       </c>
       <c r="D488"/>
@@ -8939,8 +9825,8 @@
       <c r="AI488" s="6"/>
       <c r="AJ488" s="6"/>
     </row>
-    <row r="489" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C489" s="1" t="s">
+    <row r="489" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B489" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D489"/>
@@ -8951,8 +9837,8 @@
       <c r="AI489" s="6"/>
       <c r="AJ489" s="6"/>
     </row>
-    <row r="490" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C490" s="1" t="s">
+    <row r="490" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B490" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D490"/>
@@ -8963,8 +9849,8 @@
       <c r="AI490" s="6"/>
       <c r="AJ490" s="6"/>
     </row>
-    <row r="491" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C491" s="1" t="s">
+    <row r="491" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B491" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D491"/>
@@ -8975,8 +9861,8 @@
       <c r="AI491" s="6"/>
       <c r="AJ491" s="6"/>
     </row>
-    <row r="492" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C492" s="1" t="s">
+    <row r="492" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B492" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D492"/>
@@ -8987,8 +9873,8 @@
       <c r="AI492" s="6"/>
       <c r="AJ492" s="6"/>
     </row>
-    <row r="493" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C493" s="1" t="s">
+    <row r="493" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B493" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D493"/>
@@ -8999,8 +9885,8 @@
       <c r="AI493" s="6"/>
       <c r="AJ493" s="6"/>
     </row>
-    <row r="494" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C494" s="1" t="s">
+    <row r="494" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B494" s="1" t="s">
         <v>374</v>
       </c>
       <c r="D494"/>
@@ -9011,8 +9897,8 @@
       <c r="AI494" s="6"/>
       <c r="AJ494" s="6"/>
     </row>
-    <row r="495" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C495" s="1" t="s">
+    <row r="495" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B495" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D495"/>
@@ -9023,8 +9909,8 @@
       <c r="AI495" s="6"/>
       <c r="AJ495" s="6"/>
     </row>
-    <row r="496" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C496" s="1" t="s">
+    <row r="496" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B496" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D496"/>
@@ -9035,8 +9921,8 @@
       <c r="AI496" s="6"/>
       <c r="AJ496" s="6"/>
     </row>
-    <row r="497" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C497" s="1" t="s">
+    <row r="497" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B497" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D497"/>
@@ -9047,8 +9933,8 @@
       <c r="AI497" s="6"/>
       <c r="AJ497" s="6"/>
     </row>
-    <row r="498" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C498" s="1" t="s">
+    <row r="498" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B498" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D498"/>
@@ -9059,8 +9945,8 @@
       <c r="AI498" s="6"/>
       <c r="AJ498" s="6"/>
     </row>
-    <row r="499" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C499" s="1" t="s">
+    <row r="499" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B499" s="1" t="s">
         <v>392</v>
       </c>
       <c r="D499"/>
@@ -9071,8 +9957,8 @@
       <c r="AI499" s="6"/>
       <c r="AJ499" s="6"/>
     </row>
-    <row r="500" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C500" s="1" t="s">
+    <row r="500" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B500" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D500"/>
@@ -9083,8 +9969,8 @@
       <c r="AI500" s="6"/>
       <c r="AJ500" s="6"/>
     </row>
-    <row r="501" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C501" s="1" t="s">
+    <row r="501" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B501" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D501"/>
@@ -9095,8 +9981,8 @@
       <c r="AI501" s="6"/>
       <c r="AJ501" s="6"/>
     </row>
-    <row r="502" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C502" s="1" t="s">
+    <row r="502" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B502" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D502"/>
@@ -9107,8 +9993,8 @@
       <c r="AI502" s="6"/>
       <c r="AJ502" s="6"/>
     </row>
-    <row r="503" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C503" s="1" t="s">
+    <row r="503" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B503" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D503"/>
@@ -9119,8 +10005,8 @@
       <c r="AI503" s="6"/>
       <c r="AJ503" s="6"/>
     </row>
-    <row r="504" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C504" s="1" t="s">
+    <row r="504" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B504" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D504"/>
@@ -9131,8 +10017,8 @@
       <c r="AI504" s="6"/>
       <c r="AJ504" s="6"/>
     </row>
-    <row r="505" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C505" s="1" t="s">
+    <row r="505" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B505" s="1" t="s">
         <v>411</v>
       </c>
       <c r="D505"/>
@@ -9143,8 +10029,8 @@
       <c r="AI505" s="6"/>
       <c r="AJ505" s="6"/>
     </row>
-    <row r="506" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C506" s="1" t="s">
+    <row r="506" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B506" s="1" t="s">
         <v>415</v>
       </c>
       <c r="D506"/>
@@ -9155,8 +10041,8 @@
       <c r="AI506" s="6"/>
       <c r="AJ506" s="6"/>
     </row>
-    <row r="507" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C507" s="1" t="s">
+    <row r="507" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B507" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D507"/>
@@ -9167,8 +10053,8 @@
       <c r="AI507" s="6"/>
       <c r="AJ507" s="6"/>
     </row>
-    <row r="508" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C508" s="1" t="s">
+    <row r="508" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B508" s="1" t="s">
         <v>159</v>
       </c>
       <c r="AE508" s="6"/>
@@ -9178,8 +10064,8 @@
       <c r="AI508" s="6"/>
       <c r="AJ508" s="6"/>
     </row>
-    <row r="509" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C509" s="1" t="s">
+    <row r="509" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B509" s="1" t="s">
         <v>278</v>
       </c>
       <c r="AE509" s="6"/>
@@ -9189,8 +10075,8 @@
       <c r="AI509" s="6"/>
       <c r="AJ509" s="6"/>
     </row>
-    <row r="510" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C510" s="1" t="s">
+    <row r="510" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B510" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AE510" s="6"/>
@@ -9200,8 +10086,8 @@
       <c r="AI510" s="6"/>
       <c r="AJ510" s="6"/>
     </row>
-    <row r="511" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C511" s="1" t="s">
+    <row r="511" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B511" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AE511" s="6"/>
@@ -9211,8 +10097,8 @@
       <c r="AI511" s="6"/>
       <c r="AJ511" s="6"/>
     </row>
-    <row r="512" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C512" s="1" t="s">
+    <row r="512" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B512" s="1" t="s">
         <v>207</v>
       </c>
       <c r="AE512"/>
@@ -9222,8 +10108,8 @@
       <c r="AI512"/>
       <c r="AJ512"/>
     </row>
-    <row r="513" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C513" s="1" t="s">
+    <row r="513" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B513" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AE513"/>
@@ -9233,8 +10119,8 @@
       <c r="AI513"/>
       <c r="AJ513"/>
     </row>
-    <row r="514" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C514" s="1" t="s">
+    <row r="514" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B514" s="1" t="s">
         <v>182</v>
       </c>
       <c r="AE514"/>
@@ -9244,8 +10130,8 @@
       <c r="AI514"/>
       <c r="AJ514"/>
     </row>
-    <row r="515" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C515" s="1" t="s">
+    <row r="515" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B515" s="1" t="s">
         <v>267</v>
       </c>
       <c r="AE515"/>
@@ -9255,8 +10141,8 @@
       <c r="AI515"/>
       <c r="AJ515"/>
     </row>
-    <row r="516" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C516" s="1" t="s">
+    <row r="516" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B516" s="1" t="s">
         <v>279</v>
       </c>
       <c r="AE516"/>
@@ -9266,8 +10152,8 @@
       <c r="AI516"/>
       <c r="AJ516"/>
     </row>
-    <row r="517" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C517" s="1" t="s">
+    <row r="517" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B517" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AE517"/>
@@ -9277,8 +10163,8 @@
       <c r="AI517"/>
       <c r="AJ517"/>
     </row>
-    <row r="518" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C518" s="1" t="s">
+    <row r="518" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B518" s="1" t="s">
         <v>139</v>
       </c>
       <c r="AE518"/>
@@ -9288,8 +10174,8 @@
       <c r="AI518"/>
       <c r="AJ518"/>
     </row>
-    <row r="519" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C519" s="1" t="s">
+    <row r="519" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B519" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AE519"/>
@@ -9299,8 +10185,8 @@
       <c r="AI519"/>
       <c r="AJ519"/>
     </row>
-    <row r="520" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C520" s="1" t="s">
+    <row r="520" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B520" s="1" t="s">
         <v>166</v>
       </c>
       <c r="AE520"/>
@@ -9310,8 +10196,8 @@
       <c r="AI520"/>
       <c r="AJ520"/>
     </row>
-    <row r="521" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C521" s="1" t="s">
+    <row r="521" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B521" s="1" t="s">
         <v>179</v>
       </c>
       <c r="AE521"/>
@@ -9321,8 +10207,8 @@
       <c r="AI521"/>
       <c r="AJ521"/>
     </row>
-    <row r="522" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C522" s="1" t="s">
+    <row r="522" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B522" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AE522"/>
@@ -9332,8 +10218,8 @@
       <c r="AI522"/>
       <c r="AJ522"/>
     </row>
-    <row r="523" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C523" s="1" t="s">
+    <row r="523" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B523" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AE523"/>
@@ -9343,8 +10229,8 @@
       <c r="AI523"/>
       <c r="AJ523"/>
     </row>
-    <row r="524" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C524" s="1" t="s">
+    <row r="524" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B524" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AE524"/>
@@ -9354,8 +10240,8 @@
       <c r="AI524"/>
       <c r="AJ524"/>
     </row>
-    <row r="525" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C525" s="1" t="s">
+    <row r="525" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B525" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AE525"/>
@@ -9365,8 +10251,8 @@
       <c r="AI525"/>
       <c r="AJ525"/>
     </row>
-    <row r="526" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C526" s="1" t="s">
+    <row r="526" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B526" s="1" t="s">
         <v>295</v>
       </c>
       <c r="AE526"/>
@@ -9376,8 +10262,8 @@
       <c r="AI526"/>
       <c r="AJ526"/>
     </row>
-    <row r="527" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C527" s="1" t="s">
+    <row r="527" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B527" s="1" t="s">
         <v>188</v>
       </c>
       <c r="AE527"/>
@@ -9387,8 +10273,8 @@
       <c r="AI527"/>
       <c r="AJ527"/>
     </row>
-    <row r="528" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C528" s="1" t="s">
+    <row r="528" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B528" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AE528"/>
@@ -9398,8 +10284,8 @@
       <c r="AI528"/>
       <c r="AJ528"/>
     </row>
-    <row r="529" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C529" s="1" t="s">
+    <row r="529" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B529" s="1" t="s">
         <v>298</v>
       </c>
       <c r="AE529"/>
@@ -9409,8 +10295,8 @@
       <c r="AI529"/>
       <c r="AJ529"/>
     </row>
-    <row r="530" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C530" s="1" t="s">
+    <row r="530" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B530" s="1" t="s">
         <v>233</v>
       </c>
       <c r="AE530"/>
@@ -9420,8 +10306,8 @@
       <c r="AI530"/>
       <c r="AJ530"/>
     </row>
-    <row r="531" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C531" s="1" t="s">
+    <row r="531" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B531" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AE531"/>
@@ -9431,8 +10317,8 @@
       <c r="AI531"/>
       <c r="AJ531"/>
     </row>
-    <row r="532" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C532" s="1" t="s">
+    <row r="532" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B532" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AE532"/>
@@ -9442,9 +10328,9 @@
       <c r="AI532"/>
       <c r="AJ532"/>
     </row>
-    <row r="533" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C533" s="1" t="s">
-        <v>552</v>
+    <row r="533" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B533" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="AE533"/>
       <c r="AF533"/>
@@ -9453,9 +10339,9 @@
       <c r="AI533"/>
       <c r="AJ533"/>
     </row>
-    <row r="534" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C534" s="1" t="s">
-        <v>556</v>
+    <row r="534" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B534" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="AE534"/>
       <c r="AF534"/>
@@ -9464,8 +10350,8 @@
       <c r="AI534"/>
       <c r="AJ534"/>
     </row>
-    <row r="535" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C535" s="1" t="s">
+    <row r="535" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B535" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AE535"/>
@@ -9475,8 +10361,8 @@
       <c r="AI535"/>
       <c r="AJ535"/>
     </row>
-    <row r="536" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C536" s="1" t="s">
+    <row r="536" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B536" s="1" t="s">
         <v>246</v>
       </c>
       <c r="AE536"/>
@@ -9486,8 +10372,8 @@
       <c r="AI536"/>
       <c r="AJ536"/>
     </row>
-    <row r="537" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C537" s="1" t="s">
+    <row r="537" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B537" s="1" t="s">
         <v>256</v>
       </c>
       <c r="AE537"/>
@@ -9497,8 +10383,8 @@
       <c r="AI537"/>
       <c r="AJ537"/>
     </row>
-    <row r="538" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C538" s="1" t="s">
+    <row r="538" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B538" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AE538"/>
@@ -9508,8 +10394,8 @@
       <c r="AI538"/>
       <c r="AJ538"/>
     </row>
-    <row r="539" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C539" s="1" t="s">
+    <row r="539" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B539" s="1" t="s">
         <v>277</v>
       </c>
       <c r="AE539"/>
@@ -9519,8 +10405,8 @@
       <c r="AI539"/>
       <c r="AJ539"/>
     </row>
-    <row r="540" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C540" s="1" t="s">
+    <row r="540" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B540" s="1" t="s">
         <v>289</v>
       </c>
       <c r="AE540"/>
@@ -9530,8 +10416,8 @@
       <c r="AI540"/>
       <c r="AJ540"/>
     </row>
-    <row r="541" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C541" s="1" t="s">
+    <row r="541" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B541" s="1" t="s">
         <v>241</v>
       </c>
       <c r="AE541"/>
@@ -9541,8 +10427,8 @@
       <c r="AI541"/>
       <c r="AJ541"/>
     </row>
-    <row r="542" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C542" s="1" t="s">
+    <row r="542" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B542" s="1" t="s">
         <v>250</v>
       </c>
       <c r="AE542"/>
@@ -9552,8 +10438,8 @@
       <c r="AI542"/>
       <c r="AJ542"/>
     </row>
-    <row r="543" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C543" s="1" t="s">
+    <row r="543" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B543" s="1" t="s">
         <v>311</v>
       </c>
       <c r="AE543"/>
@@ -9563,8 +10449,8 @@
       <c r="AI543"/>
       <c r="AJ543"/>
     </row>
-    <row r="544" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C544" s="1" t="s">
+    <row r="544" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B544" s="1" t="s">
         <v>260</v>
       </c>
       <c r="AE544"/>
@@ -9574,8 +10460,8 @@
       <c r="AI544"/>
       <c r="AJ544"/>
     </row>
-    <row r="545" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C545" s="1" t="s">
+    <row r="545" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B545" s="1" t="s">
         <v>270</v>
       </c>
       <c r="AE545"/>
@@ -9585,8 +10471,8 @@
       <c r="AI545"/>
       <c r="AJ545"/>
     </row>
-    <row r="546" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C546" s="1" t="s">
+    <row r="546" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B546" s="1" t="s">
         <v>312</v>
       </c>
       <c r="AE546"/>
@@ -9596,8 +10482,8 @@
       <c r="AI546"/>
       <c r="AJ546"/>
     </row>
-    <row r="547" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C547" s="1" t="s">
+    <row r="547" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B547" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AE547"/>
@@ -9607,8 +10493,8 @@
       <c r="AI547"/>
       <c r="AJ547"/>
     </row>
-    <row r="548" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C548" s="1" t="s">
+    <row r="548" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B548" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AE548"/>
@@ -9618,8 +10504,8 @@
       <c r="AI548"/>
       <c r="AJ548"/>
     </row>
-    <row r="549" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C549" s="1" t="s">
+    <row r="549" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B549" s="1" t="s">
         <v>347</v>
       </c>
       <c r="AE549"/>
@@ -9629,8 +10515,8 @@
       <c r="AI549"/>
       <c r="AJ549"/>
     </row>
-    <row r="550" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C550" s="1" t="s">
+    <row r="550" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B550" s="1" t="s">
         <v>306</v>
       </c>
       <c r="AE550"/>
@@ -9640,8 +10526,8 @@
       <c r="AI550"/>
       <c r="AJ550"/>
     </row>
-    <row r="551" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C551" s="1" t="s">
+    <row r="551" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B551" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AE551"/>
@@ -9651,8 +10537,8 @@
       <c r="AI551"/>
       <c r="AJ551"/>
     </row>
-    <row r="552" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C552" s="1" t="s">
+    <row r="552" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B552" s="1" t="s">
         <v>362</v>
       </c>
       <c r="AE552"/>
@@ -9662,8 +10548,8 @@
       <c r="AI552"/>
       <c r="AJ552"/>
     </row>
-    <row r="553" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C553" s="1" t="s">
+    <row r="553" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B553" s="1" t="s">
         <v>366</v>
       </c>
       <c r="AE553"/>
@@ -9673,8 +10559,8 @@
       <c r="AI553"/>
       <c r="AJ553"/>
     </row>
-    <row r="554" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C554" s="1" t="s">
+    <row r="554" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B554" s="1" t="s">
         <v>369</v>
       </c>
       <c r="AE554"/>
@@ -9684,8 +10570,8 @@
       <c r="AI554"/>
       <c r="AJ554"/>
     </row>
-    <row r="555" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C555" s="1" t="s">
+    <row r="555" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B555" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AE555"/>
@@ -9695,8 +10581,8 @@
       <c r="AI555"/>
       <c r="AJ555"/>
     </row>
-    <row r="556" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C556" s="1" t="s">
+    <row r="556" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B556" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AE556"/>
@@ -9706,8 +10592,8 @@
       <c r="AI556"/>
       <c r="AJ556"/>
     </row>
-    <row r="557" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C557" s="1" t="s">
+    <row r="557" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B557" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AE557"/>
@@ -9717,8 +10603,8 @@
       <c r="AI557"/>
       <c r="AJ557"/>
     </row>
-    <row r="558" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C558" s="1" t="s">
+    <row r="558" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B558" s="1" t="s">
         <v>206</v>
       </c>
       <c r="AE558"/>
@@ -9728,8 +10614,8 @@
       <c r="AI558"/>
       <c r="AJ558"/>
     </row>
-    <row r="559" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C559" s="1" t="s">
+    <row r="559" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B559" s="1" t="s">
         <v>388</v>
       </c>
       <c r="AE559"/>
@@ -9739,8 +10625,8 @@
       <c r="AI559"/>
       <c r="AJ559"/>
     </row>
-    <row r="560" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C560" s="1" t="s">
+    <row r="560" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B560" s="1" t="s">
         <v>393</v>
       </c>
       <c r="AE560"/>
@@ -9750,8 +10636,8 @@
       <c r="AI560"/>
       <c r="AJ560"/>
     </row>
-    <row r="561" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C561" s="1" t="s">
+    <row r="561" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B561" s="1" t="s">
         <v>398</v>
       </c>
       <c r="AE561"/>
@@ -9761,8 +10647,8 @@
       <c r="AI561"/>
       <c r="AJ561"/>
     </row>
-    <row r="562" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C562" s="1" t="s">
+    <row r="562" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B562" s="1" t="s">
         <v>401</v>
       </c>
       <c r="AE562"/>
@@ -9772,8 +10658,8 @@
       <c r="AI562"/>
       <c r="AJ562"/>
     </row>
-    <row r="563" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C563" s="1" t="s">
+    <row r="563" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B563" s="1" t="s">
         <v>402</v>
       </c>
       <c r="AE563"/>
@@ -9783,8 +10669,8 @@
       <c r="AI563"/>
       <c r="AJ563"/>
     </row>
-    <row r="564" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C564" s="1" t="s">
+    <row r="564" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B564" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AE564"/>
@@ -9794,8 +10680,8 @@
       <c r="AI564"/>
       <c r="AJ564"/>
     </row>
-    <row r="565" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C565" s="1" t="s">
+    <row r="565" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B565" s="1" t="s">
         <v>320</v>
       </c>
       <c r="AE565"/>
@@ -9805,8 +10691,8 @@
       <c r="AI565"/>
       <c r="AJ565"/>
     </row>
-    <row r="566" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C566" s="1" t="s">
+    <row r="566" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B566" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AE566"/>
@@ -9816,8 +10702,8 @@
       <c r="AI566"/>
       <c r="AJ566"/>
     </row>
-    <row r="567" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C567" s="1" t="s">
+    <row r="567" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B567" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AE567"/>
@@ -9827,8 +10713,8 @@
       <c r="AI567"/>
       <c r="AJ567"/>
     </row>
-    <row r="568" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C568" s="1" t="s">
+    <row r="568" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B568" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AE568"/>
@@ -9838,8 +10724,8 @@
       <c r="AI568"/>
       <c r="AJ568"/>
     </row>
-    <row r="569" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C569" s="1" t="s">
+    <row r="569" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B569" s="1" t="s">
         <v>239</v>
       </c>
       <c r="AE569"/>
@@ -9849,8 +10735,8 @@
       <c r="AI569"/>
       <c r="AJ569"/>
     </row>
-    <row r="570" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C570" s="1" t="s">
+    <row r="570" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B570" s="1" t="s">
         <v>247</v>
       </c>
       <c r="AE570"/>
@@ -9860,8 +10746,8 @@
       <c r="AI570"/>
       <c r="AJ570"/>
     </row>
-    <row r="571" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C571" s="1" t="s">
+    <row r="571" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B571" s="1" t="s">
         <v>336</v>
       </c>
       <c r="AE571" s="6"/>
@@ -9871,8 +10757,8 @@
       <c r="AI571" s="6"/>
       <c r="AJ571" s="6"/>
     </row>
-    <row r="572" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C572" s="1" t="s">
+    <row r="572" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B572" s="1" t="s">
         <v>216</v>
       </c>
       <c r="AE572" s="6"/>
@@ -9882,8 +10768,8 @@
       <c r="AI572" s="6"/>
       <c r="AJ572" s="6"/>
     </row>
-    <row r="573" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C573" s="1" t="s">
+    <row r="573" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B573" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AE573" s="6"/>
@@ -9893,9 +10779,9 @@
       <c r="AI573" s="6"/>
       <c r="AJ573" s="6"/>
     </row>
-    <row r="574" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C574" s="1" t="s">
-        <v>560</v>
+    <row r="574" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B574" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="AE574" s="6"/>
       <c r="AF574" s="6"/>
@@ -9904,7 +10790,7 @@
       <c r="AI574" s="6"/>
       <c r="AJ574" s="6"/>
     </row>
-    <row r="575" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE575" s="6"/>
       <c r="AF575" s="6"/>
       <c r="AG575" s="6"/>
@@ -9912,8 +10798,8 @@
       <c r="AI575" s="6"/>
       <c r="AJ575" s="6"/>
     </row>
-    <row r="576" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C576" s="1" t="s">
+    <row r="576" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B576" s="1" t="s">
         <v>508</v>
       </c>
       <c r="AE576" s="6"/>
@@ -9923,9 +10809,9 @@
       <c r="AI576" s="6"/>
       <c r="AJ576" s="6"/>
     </row>
-    <row r="577" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C577" s="1" t="s">
-        <v>561</v>
+    <row r="577" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B577" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="AE577" s="6"/>
       <c r="AF577" s="6"/>
@@ -9934,9 +10820,9 @@
       <c r="AI577" s="6"/>
       <c r="AJ577" s="6"/>
     </row>
-    <row r="578" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C578" s="1" t="s">
-        <v>562</v>
+    <row r="578" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B578" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="AE578" s="6"/>
       <c r="AF578" s="6"/>
@@ -9945,9 +10831,9 @@
       <c r="AI578" s="6"/>
       <c r="AJ578" s="6"/>
     </row>
-    <row r="579" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C579" s="1" t="s">
-        <v>563</v>
+    <row r="579" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B579" s="1" t="s">
+        <v>545</v>
       </c>
       <c r="AE579" s="6"/>
       <c r="AF579" s="6"/>
@@ -9956,9 +10842,9 @@
       <c r="AI579" s="6"/>
       <c r="AJ579" s="6"/>
     </row>
-    <row r="580" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C580" s="1" t="s">
-        <v>564</v>
+    <row r="580" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B580" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="AE580" s="6"/>
       <c r="AF580" s="6"/>
@@ -9967,9 +10853,9 @@
       <c r="AI580" s="6"/>
       <c r="AJ580" s="6"/>
     </row>
-    <row r="581" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C581" s="1" t="s">
-        <v>565</v>
+    <row r="581" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B581" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="AE581" s="6"/>
       <c r="AF581" s="6"/>
@@ -9978,9 +10864,9 @@
       <c r="AI581" s="6"/>
       <c r="AJ581" s="6"/>
     </row>
-    <row r="582" spans="3:36" x14ac:dyDescent="0.3">
-      <c r="C582" s="1" t="s">
-        <v>566</v>
+    <row r="582" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B582" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="AE582" s="6"/>
       <c r="AF582" s="6"/>
@@ -9989,7 +10875,7 @@
       <c r="AI582" s="6"/>
       <c r="AJ582" s="6"/>
     </row>
-    <row r="583" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE583" s="6"/>
       <c r="AF583" s="6"/>
       <c r="AG583" s="6"/>
@@ -9997,7 +10883,7 @@
       <c r="AI583" s="6"/>
       <c r="AJ583" s="6"/>
     </row>
-    <row r="584" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE584" s="6"/>
       <c r="AF584" s="6"/>
       <c r="AG584" s="6"/>
@@ -10005,7 +10891,7 @@
       <c r="AI584" s="6"/>
       <c r="AJ584" s="6"/>
     </row>
-    <row r="585" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE585" s="6"/>
       <c r="AF585" s="6"/>
       <c r="AG585" s="6"/>
@@ -10013,7 +10899,7 @@
       <c r="AI585" s="6"/>
       <c r="AJ585" s="6"/>
     </row>
-    <row r="586" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE586" s="6"/>
       <c r="AF586" s="6"/>
       <c r="AG586" s="6"/>
@@ -10021,7 +10907,7 @@
       <c r="AI586" s="6"/>
       <c r="AJ586" s="6"/>
     </row>
-    <row r="587" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE587" s="6"/>
       <c r="AF587" s="6"/>
       <c r="AG587" s="6"/>
@@ -10029,7 +10915,7 @@
       <c r="AI587" s="6"/>
       <c r="AJ587" s="6"/>
     </row>
-    <row r="588" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE588" s="6"/>
       <c r="AF588" s="6"/>
       <c r="AG588" s="6"/>
@@ -10037,7 +10923,7 @@
       <c r="AI588" s="6"/>
       <c r="AJ588" s="6"/>
     </row>
-    <row r="589" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE589" s="6"/>
       <c r="AF589" s="6"/>
       <c r="AG589" s="6"/>
@@ -10045,7 +10931,7 @@
       <c r="AI589" s="6"/>
       <c r="AJ589" s="6"/>
     </row>
-    <row r="590" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE590" s="6"/>
       <c r="AF590" s="6"/>
       <c r="AG590" s="6"/>
@@ -10053,7 +10939,7 @@
       <c r="AI590" s="6"/>
       <c r="AJ590" s="6"/>
     </row>
-    <row r="591" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE591" s="6"/>
       <c r="AF591" s="6"/>
       <c r="AG591" s="6"/>
@@ -10061,7 +10947,7 @@
       <c r="AI591" s="6"/>
       <c r="AJ591" s="6"/>
     </row>
-    <row r="592" spans="3:36" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AE592" s="6"/>
       <c r="AF592" s="6"/>
       <c r="AG592" s="6"/>

--- a/Set Parser/dedman_tests.xlsx
+++ b/Set Parser/dedman_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madat\Projects\AdvisingAI\advising\Set Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93BD055-E041-4BC7-882D-D3E44655153B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F311D3B3-A70B-4214-99BE-4B0FF9DEF3D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9648" xr2:uid="{EE11EF62-E1A2-A84D-BDAD-0FA4B8FAC44B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="578">
   <si>
     <t>ANTH 2301 - Introductory Cultural Anthropology</t>
   </si>
@@ -1772,6 +1772,9 @@
   </si>
   <si>
     <t>3 SET 9 AND 3 SET 10 AND SET 11: PHYSICS</t>
+  </si>
+  <si>
+    <t>SET 5</t>
   </si>
 </sst>
 </file>
@@ -2147,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C03DD-9254-AB4A-AF7D-D3A80BB60789}">
   <dimension ref="A1:KE601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D109"/>
+    <sheetView tabSelected="1" topLeftCell="C66" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4326,7 +4329,7 @@
         <v>349</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>563</v>
